--- a/data/virtual_customers/customers_metadata.xlsx
+++ b/data/virtual_customers/customers_metadata.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="985" uniqueCount="125">
   <si>
     <t>CustomerID</t>
   </si>
@@ -325,6 +325,69 @@
   </si>
   <si>
     <t>customer_100.xlsx</t>
+  </si>
+  <si>
+    <t>customer_101.xlsx</t>
+  </si>
+  <si>
+    <t>customer_102.xlsx</t>
+  </si>
+  <si>
+    <t>customer_103.xlsx</t>
+  </si>
+  <si>
+    <t>customer_104.xlsx</t>
+  </si>
+  <si>
+    <t>customer_105.xlsx</t>
+  </si>
+  <si>
+    <t>customer_106.xlsx</t>
+  </si>
+  <si>
+    <t>customer_107.xlsx</t>
+  </si>
+  <si>
+    <t>customer_108.xlsx</t>
+  </si>
+  <si>
+    <t>customer_109.xlsx</t>
+  </si>
+  <si>
+    <t>customer_110.xlsx</t>
+  </si>
+  <si>
+    <t>customer_111.xlsx</t>
+  </si>
+  <si>
+    <t>customer_112.xlsx</t>
+  </si>
+  <si>
+    <t>customer_113.xlsx</t>
+  </si>
+  <si>
+    <t>customer_114.xlsx</t>
+  </si>
+  <si>
+    <t>customer_115.xlsx</t>
+  </si>
+  <si>
+    <t>customer_116.xlsx</t>
+  </si>
+  <si>
+    <t>customer_117.xlsx</t>
+  </si>
+  <si>
+    <t>customer_118.xlsx</t>
+  </si>
+  <si>
+    <t>customer_119.xlsx</t>
+  </si>
+  <si>
+    <t>customer_120.xlsx</t>
+  </si>
+  <si>
+    <t>is_son</t>
   </si>
 </sst>
 </file>
@@ -370,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -380,6 +443,7 @@
     <col min="2" max="2" width="11.5546875" customWidth="true"/>
     <col min="3" max="3" width="11.5546875" customWidth="true"/>
     <col min="4" max="4" width="16.21875" customWidth="true"/>
+    <col min="5" max="5" width="6.109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -395,19 +459,25 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>6542.5550117564353</v>
+        <v>6493.1988260422895</v>
       </c>
       <c r="C2" s="0">
-        <v>1635.6387529391088</v>
+        <v>1623.2997065105724</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
+      </c>
+      <c r="E2" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -415,13 +485,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>7019.6036681652822</v>
+        <v>6485.0155724716269</v>
       </c>
       <c r="C3" s="0">
-        <v>1754.9009170413206</v>
+        <v>1621.2538931179067</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -429,13 +502,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>6943.8354637672292</v>
+        <v>5972.1825671509378</v>
       </c>
       <c r="C4" s="0">
-        <v>1735.9588659418073</v>
+        <v>1493.0456417877344</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="E4" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -443,13 +519,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>6655.2349545395728</v>
+        <v>6299.5462432752793</v>
       </c>
       <c r="C5" s="0">
-        <v>1663.8087386348932</v>
+        <v>1574.8865608188198</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>7</v>
+      </c>
+      <c r="E5" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -457,13 +536,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>7463.7740437533612</v>
+        <v>7436.5312364386491</v>
       </c>
       <c r="C6" s="0">
-        <v>1865.9435109383403</v>
+        <v>1859.1328091096623</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="E6" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -471,13 +553,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>6437.9888650672692</v>
+        <v>6916.1445082991977</v>
       </c>
       <c r="C7" s="0">
-        <v>1609.4972162668173</v>
+        <v>1729.0361270747994</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="E7" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -485,13 +570,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>7546.4028133864822</v>
+        <v>6432.5521940754725</v>
       </c>
       <c r="C8" s="0">
-        <v>1886.6007033466205</v>
+        <v>1608.1380485188681</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="E8" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -499,13 +587,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>6005.5637121180398</v>
+        <v>7422.6440681875956</v>
       </c>
       <c r="C9" s="0">
-        <v>1501.39092802951</v>
+        <v>1855.6610170468989</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>11</v>
+      </c>
+      <c r="E9" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -513,13 +604,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>6974.1855423666893</v>
+        <v>6838.4866879064239</v>
       </c>
       <c r="C10" s="0">
-        <v>1743.5463855916723</v>
+        <v>1709.621671976606</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="E10" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -527,13 +621,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>7020.8945822261658</v>
+        <v>7153.982368111182</v>
       </c>
       <c r="C11" s="0">
-        <v>1755.2236455565414</v>
+        <v>1788.4955920277955</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="E11" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -541,13 +638,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>6746.1565250380918</v>
+        <v>5992.9871088719119</v>
       </c>
       <c r="C12" s="0">
-        <v>1686.5391312595229</v>
+        <v>1498.246777217978</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="E12" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -555,13 +655,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>5589.8183211699998</v>
+        <v>7141.6597833600736</v>
       </c>
       <c r="C13" s="0">
-        <v>1397.4545802924999</v>
+        <v>1785.4149458400184</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>15</v>
+      </c>
+      <c r="E13" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -569,13 +672,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>7186.2712832189809</v>
+        <v>5634.9734238722804</v>
       </c>
       <c r="C14" s="0">
-        <v>1796.5678208047452</v>
+        <v>1408.7433559680701</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="E14" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -583,13 +689,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>6102.6790473352276</v>
+        <v>6017.223098493293</v>
       </c>
       <c r="C15" s="0">
-        <v>1525.6697618338069</v>
+        <v>1504.3057746233233</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>17</v>
+      </c>
+      <c r="E15" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -597,13 +706,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>7308.5016213847821</v>
+        <v>7741.3349211841714</v>
       </c>
       <c r="C16" s="0">
-        <v>1827.1254053461955</v>
+        <v>1935.3337302960429</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="E16" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -611,13 +723,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>7868.5617115761352</v>
+        <v>5504.8586858898116</v>
       </c>
       <c r="C17" s="0">
-        <v>1967.1404278940338</v>
+        <v>1376.2146714724529</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="E17" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -625,13 +740,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>6728.9121839048412</v>
+        <v>5647.5946497193918</v>
       </c>
       <c r="C18" s="0">
-        <v>1682.2280459762103</v>
+        <v>1411.8986624298479</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="E18" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -639,13 +757,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>7000.5688271668632</v>
+        <v>6884.1973370463302</v>
       </c>
       <c r="C19" s="0">
-        <v>1750.1422067917158</v>
+        <v>1721.0493342615825</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="E19" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -653,13 +774,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>5851.571729334436</v>
+        <v>6035.615338444878</v>
       </c>
       <c r="C20" s="0">
-        <v>1462.892932333609</v>
+        <v>1508.9038346112195</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="E20" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -667,13 +791,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>6393.0880990559626</v>
+        <v>7754.8993018691281</v>
       </c>
       <c r="C21" s="0">
-        <v>1598.2720247639907</v>
+        <v>1938.724825467282</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>23</v>
+      </c>
+      <c r="E21" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -681,13 +808,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>7180.58277824993</v>
+        <v>7949.4851699738147</v>
       </c>
       <c r="C22" s="0">
-        <v>1795.1456945624825</v>
+        <v>1987.3712924934537</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="E22" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -695,13 +825,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>7753.2654061347803</v>
+        <v>6963.9398550939886</v>
       </c>
       <c r="C23" s="0">
-        <v>1938.3163515336951</v>
+        <v>1740.9849637734972</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="E23" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -709,13 +842,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>7117.8641014625973</v>
+        <v>7347.2404167338509</v>
       </c>
       <c r="C24" s="0">
-        <v>1779.4660253656493</v>
+        <v>1836.8101041834627</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>26</v>
+      </c>
+      <c r="E24" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -723,13 +859,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>6737.4748971771633</v>
+        <v>7026.3167702501232</v>
       </c>
       <c r="C25" s="0">
-        <v>1684.3687242942908</v>
+        <v>1756.5791925625308</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>27</v>
+      </c>
+      <c r="E25" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -737,13 +876,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>5913.6032037682362</v>
+        <v>5825.1291808951064</v>
       </c>
       <c r="C26" s="0">
-        <v>1478.400800942059</v>
+        <v>1456.2822952237766</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>28</v>
+      </c>
+      <c r="E26" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -751,13 +893,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>5633.6697235903939</v>
+        <v>6562.0740902528241</v>
       </c>
       <c r="C27" s="0">
-        <v>1408.4174308975985</v>
+        <v>1640.518522563206</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="E27" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -765,13 +910,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>7564.3413110232541</v>
+        <v>7600.0587070824449</v>
       </c>
       <c r="C28" s="0">
-        <v>1891.0853277558135</v>
+        <v>1900.0146767706112</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>30</v>
+      </c>
+      <c r="E28" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -779,13 +927,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>7687.2810126098666</v>
+        <v>6217.1508056768071</v>
       </c>
       <c r="C29" s="0">
-        <v>1921.8202531524666</v>
+        <v>1554.2877014192018</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>31</v>
+      </c>
+      <c r="E29" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -793,13 +944,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>6887.3007600312649</v>
+        <v>7322.8407412888719</v>
       </c>
       <c r="C30" s="0">
-        <v>1721.8251900078162</v>
+        <v>1830.710185322218</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>32</v>
+      </c>
+      <c r="E30" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -807,13 +961,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>6588.9995309255701</v>
+        <v>7365.9680514104321</v>
       </c>
       <c r="C31" s="0">
-        <v>1647.2498827313925</v>
+        <v>1841.492012852608</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>33</v>
+      </c>
+      <c r="E31" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -821,13 +978,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>6058.3167042655195</v>
+        <v>6746.8913182773758</v>
       </c>
       <c r="C32" s="0">
-        <v>1514.5791760663799</v>
+        <v>1686.722829569344</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="E32" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -835,13 +995,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>7140.0740689519716</v>
+        <v>6853.5449048066839</v>
       </c>
       <c r="C33" s="0">
-        <v>1785.0185172379929</v>
+        <v>1713.386226201671</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>35</v>
+      </c>
+      <c r="E33" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -849,13 +1012,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>6697.5119314171143</v>
+        <v>7437.7382246255202</v>
       </c>
       <c r="C34" s="0">
-        <v>1674.3779828542786</v>
+        <v>1859.43455615638</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>36</v>
+      </c>
+      <c r="E34" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -863,13 +1029,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>7661.1627267060121</v>
+        <v>6840.8418345762393</v>
       </c>
       <c r="C35" s="0">
-        <v>1915.290681676503</v>
+        <v>1710.2104586440598</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="E35" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -877,13 +1046,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>7781.440257039385</v>
+        <v>5730.354056724439</v>
       </c>
       <c r="C36" s="0">
-        <v>1945.3600642598462</v>
+        <v>1432.5885141811098</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="E36" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -891,13 +1063,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>6629.4198643058517</v>
+        <v>5684.3306556978077</v>
       </c>
       <c r="C37" s="0">
-        <v>1657.3549660764629</v>
+        <v>1421.0826639244519</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>39</v>
+      </c>
+      <c r="E37" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -905,13 +1080,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>5862.6046013739942</v>
+        <v>6883.4580762824244</v>
       </c>
       <c r="C38" s="0">
-        <v>1465.6511503434986</v>
+        <v>1720.8645190706061</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>40</v>
+      </c>
+      <c r="E38" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -919,13 +1097,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>6521.3082759387689</v>
+        <v>7982.9536125727527</v>
       </c>
       <c r="C39" s="0">
-        <v>1630.3270689846922</v>
+        <v>1995.7384031431882</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>41</v>
+      </c>
+      <c r="E39" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -933,13 +1114,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>7925.9143511168295</v>
+        <v>6754.3127842984304</v>
       </c>
       <c r="C40" s="0">
-        <v>1981.4785877792074</v>
+        <v>1688.5781960746076</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="E40" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -947,13 +1131,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>6182.9774580557932</v>
+        <v>6113.2044137762496</v>
       </c>
       <c r="C41" s="0">
-        <v>1545.7443645139483</v>
+        <v>1528.3011034440624</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>43</v>
+      </c>
+      <c r="E41" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -961,13 +1148,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>5679.4741411037439</v>
+        <v>6679.2740099477487</v>
       </c>
       <c r="C42" s="0">
-        <v>1419.868535275936</v>
+        <v>1669.8185024869372</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="E42" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -975,13 +1165,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>6591.7321904375831</v>
+        <v>6130.063890966795</v>
       </c>
       <c r="C43" s="0">
-        <v>1647.9330476093958</v>
+        <v>1532.5159727416988</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="E43" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -989,13 +1182,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>7949.514408150304</v>
+        <v>7233.7821196987097</v>
       </c>
       <c r="C44" s="0">
-        <v>1987.378602037576</v>
+        <v>1808.4455299246774</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="E44" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1003,13 +1199,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>6181.4122399672651</v>
+        <v>6545.6159081883161</v>
       </c>
       <c r="C45" s="0">
-        <v>1545.3530599918163</v>
+        <v>1636.403977047079</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>47</v>
+      </c>
+      <c r="E45" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1017,13 +1216,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>7109.2947485628729</v>
+        <v>7345.64753809374</v>
       </c>
       <c r="C46" s="0">
-        <v>1777.3236871407182</v>
+        <v>1836.411884523435</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>48</v>
+      </c>
+      <c r="E46" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1031,13 +1233,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>5883.6710069490891</v>
+        <v>6396.7049942223875</v>
       </c>
       <c r="C47" s="0">
-        <v>1470.9177517372723</v>
+        <v>1599.1762485555969</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>49</v>
+      </c>
+      <c r="E47" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1045,13 +1250,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>6127.2982231393853</v>
+        <v>7201.4155383161715</v>
       </c>
       <c r="C48" s="0">
-        <v>1531.8245557848463</v>
+        <v>1800.3538845790429</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>50</v>
+      </c>
+      <c r="E48" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1059,13 +1267,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>6468.4296203351478</v>
+        <v>7515.2288865853952</v>
       </c>
       <c r="C49" s="0">
-        <v>1617.1074050837869</v>
+        <v>1878.8072216463488</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>51</v>
+      </c>
+      <c r="E49" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1073,13 +1284,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>5894.4520298764846</v>
+        <v>6595.7604758545394</v>
       </c>
       <c r="C50" s="0">
-        <v>1473.6130074691212</v>
+        <v>1648.9401189636349</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>52</v>
+      </c>
+      <c r="E50" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1087,13 +1301,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>7353.2693136853732</v>
+        <v>6136.1811981536048</v>
       </c>
       <c r="C51" s="0">
-        <v>1838.3173284213433</v>
+        <v>1534.0452995384012</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>53</v>
+      </c>
+      <c r="E51" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1101,13 +1318,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0">
-        <v>5668.7114960835361</v>
+        <v>7149.5019404100376</v>
       </c>
       <c r="C52" s="0">
-        <v>1417.177874020884</v>
+        <v>1787.3754851025094</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>54</v>
+      </c>
+      <c r="E52" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1115,13 +1335,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0">
-        <v>7499.3683219835384</v>
+        <v>7627.5048419334416</v>
       </c>
       <c r="C53" s="0">
-        <v>1874.8420804958846</v>
+        <v>1906.8762104833604</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>55</v>
+      </c>
+      <c r="E53" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1129,13 +1352,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0">
-        <v>7502.4542844129301</v>
+        <v>7148.4032647904951</v>
       </c>
       <c r="C54" s="0">
-        <v>1875.6135711032325</v>
+        <v>1787.1008161976238</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>56</v>
+      </c>
+      <c r="E54" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1143,13 +1369,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0">
-        <v>7804.705663512108</v>
+        <v>5919.0903047483134</v>
       </c>
       <c r="C55" s="0">
-        <v>1951.176415878027</v>
+        <v>1479.7725761870784</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>57</v>
+      </c>
+      <c r="E55" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1157,13 +1386,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0">
-        <v>6770.6230238710787</v>
+        <v>5826.4299483754594</v>
       </c>
       <c r="C56" s="0">
-        <v>1692.6557559677697</v>
+        <v>1456.6074870938648</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>58</v>
+      </c>
+      <c r="E56" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1171,13 +1403,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0">
-        <v>7275.4206270803134</v>
+        <v>5563.1068257359875</v>
       </c>
       <c r="C57" s="0">
-        <v>1818.8551567700783</v>
+        <v>1390.7767064339969</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>59</v>
+      </c>
+      <c r="E57" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1185,13 +1420,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0">
-        <v>6994.5462111847692</v>
+        <v>5944.5429870986236</v>
       </c>
       <c r="C58" s="0">
-        <v>1748.6365527961923</v>
+        <v>1486.1357467746559</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>60</v>
+      </c>
+      <c r="E58" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -1199,13 +1437,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0">
-        <v>5765.8549214468103</v>
+        <v>6142.5262296615501</v>
       </c>
       <c r="C59" s="0">
-        <v>1441.4637303617026</v>
+        <v>1535.6315574153875</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>61</v>
+      </c>
+      <c r="E59" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1213,13 +1454,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0">
-        <v>5575.4000827297577</v>
+        <v>7568.7972468775806</v>
       </c>
       <c r="C60" s="0">
-        <v>1393.8500206824394</v>
+        <v>1892.1993117193952</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>62</v>
+      </c>
+      <c r="E60" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1227,13 +1471,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0">
-        <v>7693.3659236050325</v>
+        <v>7372.8749462012956</v>
       </c>
       <c r="C61" s="0">
-        <v>1923.3414809012581</v>
+        <v>1843.2187365503239</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>63</v>
+      </c>
+      <c r="E61" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1241,13 +1488,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0">
-        <v>6171.6346714138863</v>
+        <v>7230.4210849886276</v>
       </c>
       <c r="C62" s="0">
-        <v>1542.9086678534716</v>
+        <v>1807.6052712471569</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>64</v>
+      </c>
+      <c r="E62" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1255,13 +1505,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0">
-        <v>7133.5293144994112</v>
+        <v>7219.0571035983021</v>
       </c>
       <c r="C63" s="0">
-        <v>1783.3823286248528</v>
+        <v>1804.7642758995755</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>65</v>
+      </c>
+      <c r="E63" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1269,13 +1522,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0">
-        <v>6712.3308893283065</v>
+        <v>6219.6989453340975</v>
       </c>
       <c r="C64" s="0">
-        <v>1678.0827223320766</v>
+        <v>1554.9247363335244</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>66</v>
+      </c>
+      <c r="E64" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1283,13 +1539,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="0">
-        <v>7955.7288271517991</v>
+        <v>7042.4481815004101</v>
       </c>
       <c r="C65" s="0">
-        <v>1988.9322067879498</v>
+        <v>1760.6120453751025</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>67</v>
+      </c>
+      <c r="E65" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1297,13 +1556,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>7712.5123865868227</v>
+        <v>5542.6802779831005</v>
       </c>
       <c r="C66" s="0">
-        <v>1928.1280966467057</v>
+        <v>1385.6700694957751</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>68</v>
+      </c>
+      <c r="E66" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1311,13 +1573,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="0">
-        <v>6371.0275785234262</v>
+        <v>6197.030680819882</v>
       </c>
       <c r="C67" s="0">
-        <v>1592.7568946308566</v>
+        <v>1549.2576702049705</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>69</v>
+      </c>
+      <c r="E67" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1325,13 +1590,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0">
-        <v>5851.1324489353092</v>
+        <v>6881.5713827898298</v>
       </c>
       <c r="C68" s="0">
-        <v>1462.7831122338273</v>
+        <v>1720.3928456974575</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>70</v>
+      </c>
+      <c r="E68" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1339,13 +1607,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="0">
-        <v>6907.4851949471504</v>
+        <v>5739.2404563358214</v>
       </c>
       <c r="C69" s="0">
-        <v>1726.8712987367876</v>
+        <v>1434.8101140839553</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>71</v>
+      </c>
+      <c r="E69" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1353,13 +1624,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>5513.5468649690338</v>
+        <v>5576.8504833046063</v>
       </c>
       <c r="C70" s="0">
-        <v>1378.3867162422584</v>
+        <v>1394.2126208261516</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>72</v>
+      </c>
+      <c r="E70" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1367,13 +1641,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="0">
-        <v>7215.5259104984525</v>
+        <v>5699.5382819918495</v>
       </c>
       <c r="C71" s="0">
-        <v>1803.8814776246131</v>
+        <v>1424.8845704979624</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>73</v>
+      </c>
+      <c r="E71" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1381,13 +1658,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="0">
-        <v>7668.1854379781671</v>
+        <v>7003.8042037825453</v>
       </c>
       <c r="C72" s="0">
-        <v>1917.0463594945418</v>
+        <v>1750.9510509456363</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>74</v>
+      </c>
+      <c r="E72" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1395,13 +1675,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>5620.1265687472842</v>
+        <v>7370.6573575155835</v>
       </c>
       <c r="C73" s="0">
-        <v>1405.031642186821</v>
+        <v>1842.6643393788959</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>75</v>
+      </c>
+      <c r="E73" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1409,13 +1692,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0">
-        <v>7104.1881758246418</v>
+        <v>7486.761976686601</v>
       </c>
       <c r="C74" s="0">
-        <v>1776.0470439561605</v>
+        <v>1871.6904941716502</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>76</v>
+      </c>
+      <c r="E74" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1423,13 +1709,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="0">
-        <v>5810.4643741722757</v>
+        <v>5765.2852154379616</v>
       </c>
       <c r="C75" s="0">
-        <v>1452.6160935430689</v>
+        <v>1441.3213038594904</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>77</v>
+      </c>
+      <c r="E75" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1437,13 +1726,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="0">
-        <v>6648.7080317393284</v>
+        <v>5885.1035756574111</v>
       </c>
       <c r="C76" s="0">
-        <v>1662.1770079348321</v>
+        <v>1471.2758939143528</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>78</v>
+      </c>
+      <c r="E76" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1451,13 +1743,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0">
-        <v>7657.0223566450513</v>
+        <v>7483.3690993187847</v>
       </c>
       <c r="C77" s="0">
-        <v>1914.2555891612628</v>
+        <v>1870.8422748296962</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>79</v>
+      </c>
+      <c r="E77" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1465,13 +1760,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="0">
-        <v>5686.6861269407973</v>
+        <v>7436.4536713255648</v>
       </c>
       <c r="C78" s="0">
-        <v>1421.6715317351993</v>
+        <v>1859.1134178313912</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>80</v>
+      </c>
+      <c r="E78" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1479,13 +1777,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="0">
-        <v>6951.632233725325</v>
+        <v>7578.6877811913291</v>
       </c>
       <c r="C79" s="0">
-        <v>1737.9080584313313</v>
+        <v>1894.6719452978323</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>81</v>
+      </c>
+      <c r="E79" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1493,13 +1794,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="0">
-        <v>6376.6844872283036</v>
+        <v>5721.2997874558532</v>
       </c>
       <c r="C80" s="0">
-        <v>1594.1711218070759</v>
+        <v>1430.3249468639633</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>82</v>
+      </c>
+      <c r="E80" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1507,13 +1811,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="0">
-        <v>7653.4269016397902</v>
+        <v>7307.3473567035498</v>
       </c>
       <c r="C81" s="0">
-        <v>1913.3567254099476</v>
+        <v>1826.8368391758875</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>83</v>
+      </c>
+      <c r="E81" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1521,13 +1828,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="0">
-        <v>5918.5955380900814</v>
+        <v>5798.838852855205</v>
       </c>
       <c r="C82" s="0">
-        <v>1479.6488845225203</v>
+        <v>1449.7097132138013</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="E82" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1535,13 +1845,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0">
-        <v>7866.7073193981432</v>
+        <v>6583.3143777490213</v>
       </c>
       <c r="C83" s="0">
-        <v>1966.6768298495358</v>
+        <v>1645.8285944372553</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>85</v>
+      </c>
+      <c r="E83" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1549,13 +1862,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0">
-        <v>7109.3625094622221</v>
+        <v>7929.5202893409205</v>
       </c>
       <c r="C84" s="0">
-        <v>1777.3406273655555</v>
+        <v>1982.3800723352301</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>86</v>
+      </c>
+      <c r="E84" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1563,13 +1879,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0">
-        <v>7388.7744451779608</v>
+        <v>5631.8947890580484</v>
       </c>
       <c r="C85" s="0">
-        <v>1847.1936112944902</v>
+        <v>1407.9736972645121</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>87</v>
+      </c>
+      <c r="E85" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1577,13 +1896,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="0">
-        <v>7605.3537272212416</v>
+        <v>7163.6181027749035</v>
       </c>
       <c r="C86" s="0">
-        <v>1901.3384318053104</v>
+        <v>1790.9045256937259</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>88</v>
+      </c>
+      <c r="E86" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1591,13 +1913,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="0">
-        <v>7070.2780812959245</v>
+        <v>6853.606515134401</v>
       </c>
       <c r="C87" s="0">
-        <v>1767.5695203239811</v>
+        <v>1713.4016287836002</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>89</v>
+      </c>
+      <c r="E87" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1605,13 +1930,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="0">
-        <v>5662.6050650028619</v>
+        <v>7797.0245322703995</v>
       </c>
       <c r="C88" s="0">
-        <v>1415.6512662507155</v>
+        <v>1949.2561330675999</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>90</v>
+      </c>
+      <c r="E88" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1619,13 +1947,16 @@
         <v>88</v>
       </c>
       <c r="B89" s="0">
-        <v>6679.9121968140716</v>
+        <v>5576.2879890669456</v>
       </c>
       <c r="C89" s="0">
-        <v>1669.9780492035179</v>
+        <v>1394.0719972667364</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>91</v>
+      </c>
+      <c r="E89" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1633,13 +1964,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="0">
-        <v>5574.1908043354579</v>
+        <v>7966.6362998923832</v>
       </c>
       <c r="C90" s="0">
-        <v>1393.5477010838645</v>
+        <v>1991.6590749730958</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>92</v>
+      </c>
+      <c r="E90" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1647,13 +1981,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="0">
-        <v>7629.5394542483727</v>
+        <v>5587.4746795619558</v>
       </c>
       <c r="C91" s="0">
-        <v>1907.3848635620932</v>
+        <v>1396.8686698904889</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>93</v>
+      </c>
+      <c r="E91" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1661,13 +1998,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="0">
-        <v>7136.7315053663533</v>
+        <v>6852.237840976637</v>
       </c>
       <c r="C92" s="0">
-        <v>1784.1828763415883</v>
+        <v>1713.0594602441593</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>94</v>
+      </c>
+      <c r="E92" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -1675,13 +2015,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="0">
-        <v>6620.7982313920083</v>
+        <v>7932.6182325147383</v>
       </c>
       <c r="C93" s="0">
-        <v>1655.1995578480021</v>
+        <v>1983.1545581286846</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>95</v>
+      </c>
+      <c r="E93" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1689,13 +2032,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="0">
-        <v>7529.1183997129847</v>
+        <v>5621.6967733409538</v>
       </c>
       <c r="C94" s="0">
-        <v>1882.2795999282462</v>
+        <v>1405.4241933352384</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>96</v>
+      </c>
+      <c r="E94" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1703,13 +2049,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="0">
-        <v>6099.1508132439285</v>
+        <v>7542.3853686922521</v>
       </c>
       <c r="C95" s="0">
-        <v>1524.7877033109821</v>
+        <v>1885.596342173063</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>97</v>
+      </c>
+      <c r="E95" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -1717,13 +2066,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="0">
-        <v>7866.2286642630543</v>
+        <v>6112.1572301140286</v>
       </c>
       <c r="C96" s="0">
-        <v>1966.5571660657636</v>
+        <v>1528.0393075285072</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>98</v>
+      </c>
+      <c r="E96" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1731,13 +2083,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="0">
-        <v>6220.4328853485467</v>
+        <v>6221.821185135881</v>
       </c>
       <c r="C97" s="0">
-        <v>1555.1082213371367</v>
+        <v>1555.4552962839703</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>99</v>
+      </c>
+      <c r="E97" s="0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -1745,13 +2100,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="0">
-        <v>7745.9133480868213</v>
+        <v>6684.6263601386845</v>
       </c>
       <c r="C98" s="0">
-        <v>1936.4783370217053</v>
+        <v>1671.1565900346711</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>100</v>
+      </c>
+      <c r="E98" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1759,13 +2117,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="0">
-        <v>6202.1203046949622</v>
+        <v>5659.1500975202116</v>
       </c>
       <c r="C99" s="0">
-        <v>1550.5300761737406</v>
+        <v>1414.7875243800529</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>101</v>
+      </c>
+      <c r="E99" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1773,13 +2134,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="0">
-        <v>6450.9189293848776</v>
+        <v>7359.6596282463233</v>
       </c>
       <c r="C100" s="0">
-        <v>1612.7297323462194</v>
+        <v>1839.9149070615808</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="E100" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1787,13 +2151,356 @@
         <v>100</v>
       </c>
       <c r="B101" s="0">
-        <v>5699.2550962457917</v>
+        <v>7352.6451511080595</v>
       </c>
       <c r="C101" s="0">
-        <v>1424.8137740614479</v>
+        <v>1838.1612877770149</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>103</v>
+      </c>
+      <c r="E101" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0">
+        <v>6888.601622771308</v>
+      </c>
+      <c r="C102" s="0">
+        <v>1722.150405692827</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0">
+        <v>6910.1593729004671</v>
+      </c>
+      <c r="C103" s="0">
+        <v>1727.5398432251168</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0">
+        <v>6496.0363362146818</v>
+      </c>
+      <c r="C104" s="0">
+        <v>1624.0090840536704</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E104" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0">
+        <v>7181.3383511578095</v>
+      </c>
+      <c r="C105" s="0">
+        <v>1795.3345877894524</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0">
+        <v>7813.9896387368171</v>
+      </c>
+      <c r="C106" s="0">
+        <v>1953.4974096842043</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>106</v>
+      </c>
+      <c r="B107" s="0">
+        <v>7586.4501650682732</v>
+      </c>
+      <c r="C107" s="0">
+        <v>1896.6125412670683</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E107" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0">
+        <v>6091.4356823874341</v>
+      </c>
+      <c r="C108" s="0">
+        <v>1522.8589205968585</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E108" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>108</v>
+      </c>
+      <c r="B109" s="0">
+        <v>7027.2307804092397</v>
+      </c>
+      <c r="C109" s="0">
+        <v>1756.8076951023099</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>109</v>
+      </c>
+      <c r="B110" s="0">
+        <v>6136.4777845760873</v>
+      </c>
+      <c r="C110" s="0">
+        <v>1534.1194461440218</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>110</v>
+      </c>
+      <c r="B111" s="0">
+        <v>6496.2841136633233</v>
+      </c>
+      <c r="C111" s="0">
+        <v>1624.0710284158308</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E111" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>111</v>
+      </c>
+      <c r="B112" s="0">
+        <v>6236.528047071808</v>
+      </c>
+      <c r="C112" s="0">
+        <v>1559.132011767952</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E112" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>112</v>
+      </c>
+      <c r="B113" s="0">
+        <v>5603.1695147976025</v>
+      </c>
+      <c r="C113" s="0">
+        <v>1400.7923786994006</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E113" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>113</v>
+      </c>
+      <c r="B114" s="0">
+        <v>7652.3748809388617</v>
+      </c>
+      <c r="C114" s="0">
+        <v>1913.0937202347154</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E114" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>114</v>
+      </c>
+      <c r="B115" s="0">
+        <v>5603.8772272777605</v>
+      </c>
+      <c r="C115" s="0">
+        <v>1400.9693068194401</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E115" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>115</v>
+      </c>
+      <c r="B116" s="0">
+        <v>6195.8520700689842</v>
+      </c>
+      <c r="C116" s="0">
+        <v>1548.963017517246</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E116" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>116</v>
+      </c>
+      <c r="B117" s="0">
+        <v>7569.9102586292829</v>
+      </c>
+      <c r="C117" s="0">
+        <v>1892.4775646573207</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E117" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>117</v>
+      </c>
+      <c r="B118" s="0">
+        <v>6282.0823306816928</v>
+      </c>
+      <c r="C118" s="0">
+        <v>1570.5205826704232</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="E118" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>118</v>
+      </c>
+      <c r="B119" s="0">
+        <v>6455.7994524114711</v>
+      </c>
+      <c r="C119" s="0">
+        <v>1613.9498631028678</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E119" s="0" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>119</v>
+      </c>
+      <c r="B120" s="0">
+        <v>6093.3900238095648</v>
+      </c>
+      <c r="C120" s="0">
+        <v>1523.3475059523912</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E120" s="0" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>120</v>
+      </c>
+      <c r="B121" s="0">
+        <v>7935.6521919963743</v>
+      </c>
+      <c r="C121" s="0">
+        <v>1983.9130479990936</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E121" s="0" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/virtual_customers/customers_metadata.xlsx
+++ b/data/virtual_customers/customers_metadata.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="985" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1110" uniqueCount="125">
   <si>
     <t>CustomerID</t>
   </si>
@@ -468,10 +468,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>6493.1988260422895</v>
+        <v>6352.4190778215343</v>
       </c>
       <c r="C2" s="0">
-        <v>1623.2997065105724</v>
+        <v>1588.1047694553836</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
@@ -485,10 +485,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>6485.0155724716269</v>
+        <v>6105.6340035291596</v>
       </c>
       <c r="C3" s="0">
-        <v>1621.2538931179067</v>
+        <v>1526.4085008822899</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>5</v>
@@ -502,10 +502,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>5972.1825671509378</v>
+        <v>7476.1708254445912</v>
       </c>
       <c r="C4" s="0">
-        <v>1493.0456417877344</v>
+        <v>1869.0427063611478</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>6</v>
@@ -519,10 +519,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>6299.5462432752793</v>
+        <v>6264.6475952675883</v>
       </c>
       <c r="C5" s="0">
-        <v>1574.8865608188198</v>
+        <v>1566.1618988168971</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>7</v>
@@ -536,10 +536,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>7436.5312364386491</v>
+        <v>7270.7903518329922</v>
       </c>
       <c r="C6" s="0">
-        <v>1859.1328091096623</v>
+        <v>1817.6975879582481</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>8</v>
@@ -553,10 +553,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>6916.1445082991977</v>
+        <v>7876.0652553277578</v>
       </c>
       <c r="C7" s="0">
-        <v>1729.0361270747994</v>
+        <v>1969.0163138319394</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>9</v>
@@ -570,16 +570,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>6432.5521940754725</v>
+        <v>6510.7202380488434</v>
       </c>
       <c r="C8" s="0">
-        <v>1608.1380485188681</v>
+        <v>1627.6800595122108</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -587,16 +587,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>7422.6440681875956</v>
+        <v>6063.8001081609809</v>
       </c>
       <c r="C9" s="0">
-        <v>1855.6610170468989</v>
+        <v>1515.9500270402452</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -604,10 +604,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>6838.4866879064239</v>
+        <v>6303.1699903225544</v>
       </c>
       <c r="C10" s="0">
-        <v>1709.621671976606</v>
+        <v>1575.7924975806386</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
@@ -621,10 +621,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>7153.982368111182</v>
+        <v>7234.6481112991351</v>
       </c>
       <c r="C11" s="0">
-        <v>1788.4955920277955</v>
+        <v>1808.6620278247838</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>13</v>
@@ -638,10 +638,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>5992.9871088719119</v>
+        <v>5583.8620647338266</v>
       </c>
       <c r="C12" s="0">
-        <v>1498.246777217978</v>
+        <v>1395.9655161834567</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>14</v>
@@ -655,10 +655,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>7141.6597833600736</v>
+        <v>5686.0645406932827</v>
       </c>
       <c r="C13" s="0">
-        <v>1785.4149458400184</v>
+        <v>1421.5161351733207</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>15</v>
@@ -672,10 +672,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>5634.9734238722804</v>
+        <v>6837.2339964657849</v>
       </c>
       <c r="C14" s="0">
-        <v>1408.7433559680701</v>
+        <v>1709.3084991164462</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>16</v>
@@ -689,10 +689,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>6017.223098493293</v>
+        <v>7720.712588195117</v>
       </c>
       <c r="C15" s="0">
-        <v>1504.3057746233233</v>
+        <v>1930.1781470487792</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>17</v>
@@ -706,16 +706,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>7741.3349211841714</v>
+        <v>7015.8370760992848</v>
       </c>
       <c r="C16" s="0">
-        <v>1935.3337302960429</v>
+        <v>1753.9592690248212</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -723,10 +723,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>5504.8586858898116</v>
+        <v>6494.0393175905419</v>
       </c>
       <c r="C17" s="0">
-        <v>1376.2146714724529</v>
+        <v>1623.5098293976355</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>19</v>
@@ -740,10 +740,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>5647.5946497193918</v>
+        <v>7530.8044747990407</v>
       </c>
       <c r="C18" s="0">
-        <v>1411.8986624298479</v>
+        <v>1882.7011186997602</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>20</v>
@@ -757,16 +757,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>6884.1973370463302</v>
+        <v>7038.0090637104886</v>
       </c>
       <c r="C19" s="0">
-        <v>1721.0493342615825</v>
+        <v>1759.5022659276221</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>21</v>
       </c>
       <c r="E19" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -774,10 +774,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>6035.615338444878</v>
+        <v>6385.014161205122</v>
       </c>
       <c r="C20" s="0">
-        <v>1508.9038346112195</v>
+        <v>1596.2535403012805</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>22</v>
@@ -791,10 +791,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>7754.8993018691281</v>
+        <v>5814.8411548738741</v>
       </c>
       <c r="C21" s="0">
-        <v>1938.724825467282</v>
+        <v>1453.7102887184685</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>23</v>
@@ -808,16 +808,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>7949.4851699738147</v>
+        <v>6323.1844186831077</v>
       </c>
       <c r="C22" s="0">
-        <v>1987.3712924934537</v>
+        <v>1580.7961046707769</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -825,16 +825,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>6963.9398550939886</v>
+        <v>7677.7538760484676</v>
       </c>
       <c r="C23" s="0">
-        <v>1740.9849637734972</v>
+        <v>1919.4384690121169</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -842,10 +842,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>7347.2404167338509</v>
+        <v>6021.2165684193487</v>
       </c>
       <c r="C24" s="0">
-        <v>1836.8101041834627</v>
+        <v>1505.3041421048372</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>26</v>
@@ -859,10 +859,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>7026.3167702501232</v>
+        <v>6394.2078169139768</v>
       </c>
       <c r="C25" s="0">
-        <v>1756.5791925625308</v>
+        <v>1598.5519542284942</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>27</v>
@@ -876,10 +876,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>5825.1291808951064</v>
+        <v>6744.2214173154598</v>
       </c>
       <c r="C26" s="0">
-        <v>1456.2822952237766</v>
+        <v>1686.055354328865</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>28</v>
@@ -893,16 +893,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>6562.0740902528241</v>
+        <v>6659.310969229361</v>
       </c>
       <c r="C27" s="0">
-        <v>1640.518522563206</v>
+        <v>1664.8277423073403</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -910,10 +910,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>7600.0587070824449</v>
+        <v>6739.7801690407696</v>
       </c>
       <c r="C28" s="0">
-        <v>1900.0146767706112</v>
+        <v>1684.9450422601924</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>30</v>
@@ -927,10 +927,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>6217.1508056768071</v>
+        <v>7333.9744050555637</v>
       </c>
       <c r="C29" s="0">
-        <v>1554.2877014192018</v>
+        <v>1833.4936012638909</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>31</v>
@@ -944,10 +944,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>7322.8407412888719</v>
+        <v>5955.6858505003311</v>
       </c>
       <c r="C30" s="0">
-        <v>1830.710185322218</v>
+        <v>1488.9214626250828</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>32</v>
@@ -961,10 +961,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>7365.9680514104321</v>
+        <v>7590.8038487476506</v>
       </c>
       <c r="C31" s="0">
-        <v>1841.492012852608</v>
+        <v>1897.7009621869126</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>33</v>
@@ -978,10 +978,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>6746.8913182773758</v>
+        <v>7106.812564960529</v>
       </c>
       <c r="C32" s="0">
-        <v>1686.722829569344</v>
+        <v>1776.7031412401323</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>34</v>
@@ -995,16 +995,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>6853.5449048066839</v>
+        <v>6178.2768578380401</v>
       </c>
       <c r="C33" s="0">
-        <v>1713.386226201671</v>
+        <v>1544.56921445951</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1012,10 +1012,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>7437.7382246255202</v>
+        <v>7418.2087189409203</v>
       </c>
       <c r="C34" s="0">
-        <v>1859.43455615638</v>
+        <v>1854.5521797352301</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>36</v>
@@ -1029,10 +1029,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>6840.8418345762393</v>
+        <v>5517.0133777273568</v>
       </c>
       <c r="C35" s="0">
-        <v>1710.2104586440598</v>
+        <v>1379.2533444318392</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>37</v>
@@ -1046,16 +1046,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>5730.354056724439</v>
+        <v>6098.2704834193319</v>
       </c>
       <c r="C36" s="0">
-        <v>1432.5885141811098</v>
+        <v>1524.567620854833</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1063,10 +1063,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>5684.3306556978077</v>
+        <v>5789.6412225863014</v>
       </c>
       <c r="C37" s="0">
-        <v>1421.0826639244519</v>
+        <v>1447.4103056465754</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>39</v>
@@ -1080,10 +1080,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>6883.4580762824244</v>
+        <v>7571.3236140414392</v>
       </c>
       <c r="C38" s="0">
-        <v>1720.8645190706061</v>
+        <v>1892.8309035103598</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>40</v>
@@ -1097,10 +1097,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>7982.9536125727527</v>
+        <v>5856.6259579734342</v>
       </c>
       <c r="C39" s="0">
-        <v>1995.7384031431882</v>
+        <v>1464.1564894933585</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>41</v>
@@ -1114,10 +1114,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>6754.3127842984304</v>
+        <v>6207.8587837439682</v>
       </c>
       <c r="C40" s="0">
-        <v>1688.5781960746076</v>
+        <v>1551.964695935992</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>42</v>
@@ -1131,10 +1131,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>6113.2044137762496</v>
+        <v>7073.509298987824</v>
       </c>
       <c r="C41" s="0">
-        <v>1528.3011034440624</v>
+        <v>1768.377324746956</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>43</v>
@@ -1148,10 +1148,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>6679.2740099477487</v>
+        <v>6447.2782641430167</v>
       </c>
       <c r="C42" s="0">
-        <v>1669.8185024869372</v>
+        <v>1611.8195660357542</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>44</v>
@@ -1165,10 +1165,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>6130.063890966795</v>
+        <v>7436.0669992154972</v>
       </c>
       <c r="C43" s="0">
-        <v>1532.5159727416988</v>
+        <v>1859.0167498038743</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>45</v>
@@ -1182,16 +1182,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>7233.7821196987097</v>
+        <v>6294.0046744769816</v>
       </c>
       <c r="C44" s="0">
-        <v>1808.4455299246774</v>
+        <v>1573.5011686192454</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>46</v>
       </c>
       <c r="E44" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1199,10 +1199,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>6545.6159081883161</v>
+        <v>6106.3701693581452</v>
       </c>
       <c r="C45" s="0">
-        <v>1636.403977047079</v>
+        <v>1526.5925423395363</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>47</v>
@@ -1216,10 +1216,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>7345.64753809374</v>
+        <v>6910.5672670186541</v>
       </c>
       <c r="C46" s="0">
-        <v>1836.411884523435</v>
+        <v>1727.6418167546635</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>48</v>
@@ -1233,16 +1233,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>6396.7049942223875</v>
+        <v>7053.3663023683575</v>
       </c>
       <c r="C47" s="0">
-        <v>1599.1762485555969</v>
+        <v>1763.3415755920894</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>49</v>
       </c>
       <c r="E47" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1250,10 +1250,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>7201.4155383161715</v>
+        <v>7863.5412766160825</v>
       </c>
       <c r="C48" s="0">
-        <v>1800.3538845790429</v>
+        <v>1965.8853191540206</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>50</v>
@@ -1267,16 +1267,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>7515.2288865853952</v>
+        <v>7155.7718454597007</v>
       </c>
       <c r="C49" s="0">
-        <v>1878.8072216463488</v>
+        <v>1788.9429613649252</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>51</v>
       </c>
       <c r="E49" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1284,10 +1284,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>6595.7604758545394</v>
+        <v>7944.5844764998719</v>
       </c>
       <c r="C50" s="0">
-        <v>1648.9401189636349</v>
+        <v>1986.146119124968</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>52</v>
@@ -1301,10 +1301,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>6136.1811981536048</v>
+        <v>7235.9491598939558</v>
       </c>
       <c r="C51" s="0">
-        <v>1534.0452995384012</v>
+        <v>1808.9872899734889</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>53</v>
@@ -1318,10 +1318,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="0">
-        <v>7149.5019404100376</v>
+        <v>5937.3147181620925</v>
       </c>
       <c r="C52" s="0">
-        <v>1787.3754851025094</v>
+        <v>1484.3286795405231</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>54</v>
@@ -1335,10 +1335,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="0">
-        <v>7627.5048419334416</v>
+        <v>5789.4030169450907</v>
       </c>
       <c r="C53" s="0">
-        <v>1906.8762104833604</v>
+        <v>1447.3507542362727</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>55</v>
@@ -1352,10 +1352,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="0">
-        <v>7148.4032647904951</v>
+        <v>7393.7631799062983</v>
       </c>
       <c r="C54" s="0">
-        <v>1787.1008161976238</v>
+        <v>1848.4407949765746</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>56</v>
@@ -1369,16 +1369,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0">
-        <v>5919.0903047483134</v>
+        <v>7549.7430609427001</v>
       </c>
       <c r="C55" s="0">
-        <v>1479.7725761870784</v>
+        <v>1887.435765235675</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>57</v>
       </c>
       <c r="E55" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1386,16 +1386,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0">
-        <v>5826.4299483754594</v>
+        <v>5979.8966559884775</v>
       </c>
       <c r="C56" s="0">
-        <v>1456.6074870938648</v>
+        <v>1494.9741639971194</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>58</v>
       </c>
       <c r="E56" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1403,10 +1403,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="0">
-        <v>5563.1068257359875</v>
+        <v>7224.9986647724281</v>
       </c>
       <c r="C57" s="0">
-        <v>1390.7767064339969</v>
+        <v>1806.249666193107</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>59</v>
@@ -1420,10 +1420,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="0">
-        <v>5944.5429870986236</v>
+        <v>6886.9564029504099</v>
       </c>
       <c r="C58" s="0">
-        <v>1486.1357467746559</v>
+        <v>1721.7391007376025</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>60</v>
@@ -1437,16 +1437,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0">
-        <v>6142.5262296615501</v>
+        <v>7419.3711563252946</v>
       </c>
       <c r="C59" s="0">
-        <v>1535.6315574153875</v>
+        <v>1854.8427890813236</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>61</v>
       </c>
       <c r="E59" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1454,10 +1454,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="0">
-        <v>7568.7972468775806</v>
+        <v>6257.5395901575257</v>
       </c>
       <c r="C60" s="0">
-        <v>1892.1993117193952</v>
+        <v>1564.3848975393814</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>62</v>
@@ -1471,10 +1471,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="0">
-        <v>7372.8749462012956</v>
+        <v>7286.5281635538568</v>
       </c>
       <c r="C61" s="0">
-        <v>1843.2187365503239</v>
+        <v>1821.6320408884642</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>63</v>
@@ -1488,16 +1488,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0">
-        <v>7230.4210849886276</v>
+        <v>6751.6987451398154</v>
       </c>
       <c r="C62" s="0">
-        <v>1807.6052712471569</v>
+        <v>1687.9246862849539</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>64</v>
       </c>
       <c r="E62" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1505,10 +1505,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="0">
-        <v>7219.0571035983021</v>
+        <v>5991.3030437893576</v>
       </c>
       <c r="C63" s="0">
-        <v>1804.7642758995755</v>
+        <v>1497.8257609473394</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>65</v>
@@ -1522,16 +1522,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0">
-        <v>6219.6989453340975</v>
+        <v>7645.2984161593813</v>
       </c>
       <c r="C64" s="0">
-        <v>1554.9247363335244</v>
+        <v>1911.3246040398453</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>66</v>
       </c>
       <c r="E64" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1539,10 +1539,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="0">
-        <v>7042.4481815004101</v>
+        <v>7507.7096780511547</v>
       </c>
       <c r="C65" s="0">
-        <v>1760.6120453751025</v>
+        <v>1876.9274195127887</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>67</v>
@@ -1556,10 +1556,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>5542.6802779831005</v>
+        <v>6188.5579526656411</v>
       </c>
       <c r="C66" s="0">
-        <v>1385.6700694957751</v>
+        <v>1547.1394881664103</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>68</v>
@@ -1573,10 +1573,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="0">
-        <v>6197.030680819882</v>
+        <v>6471.6040655895395</v>
       </c>
       <c r="C67" s="0">
-        <v>1549.2576702049705</v>
+        <v>1617.9010163973849</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>69</v>
@@ -1590,10 +1590,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="0">
-        <v>6881.5713827898298</v>
+        <v>7658.9561240522817</v>
       </c>
       <c r="C68" s="0">
-        <v>1720.3928456974575</v>
+        <v>1914.7390310130704</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>70</v>
@@ -1607,10 +1607,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="0">
-        <v>5739.2404563358214</v>
+        <v>6110.0569251167553</v>
       </c>
       <c r="C69" s="0">
-        <v>1434.8101140839553</v>
+        <v>1527.5142312791888</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>71</v>
@@ -1624,16 +1624,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>5576.8504833046063</v>
+        <v>7451.058746254279</v>
       </c>
       <c r="C70" s="0">
-        <v>1394.2126208261516</v>
+        <v>1862.7646865635697</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>72</v>
       </c>
       <c r="E70" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1641,10 +1641,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="0">
-        <v>5699.5382819918495</v>
+        <v>5567.283322050801</v>
       </c>
       <c r="C71" s="0">
-        <v>1424.8845704979624</v>
+        <v>1391.8208305127002</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>73</v>
@@ -1658,10 +1658,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="0">
-        <v>7003.8042037825453</v>
+        <v>7888.6158819649427</v>
       </c>
       <c r="C72" s="0">
-        <v>1750.9510509456363</v>
+        <v>1972.1539704912357</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>74</v>
@@ -1675,10 +1675,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>7370.6573575155835</v>
+        <v>7248.5362242398951</v>
       </c>
       <c r="C73" s="0">
-        <v>1842.6643393788959</v>
+        <v>1812.1340560599738</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>75</v>
@@ -1692,10 +1692,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="0">
-        <v>7486.761976686601</v>
+        <v>7772.6303933684476</v>
       </c>
       <c r="C74" s="0">
-        <v>1871.6904941716502</v>
+        <v>1943.1575983421119</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>76</v>
@@ -1709,10 +1709,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="0">
-        <v>5765.2852154379616</v>
+        <v>6747.3691091395331</v>
       </c>
       <c r="C75" s="0">
-        <v>1441.3213038594904</v>
+        <v>1686.8422772848833</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>77</v>
@@ -1726,10 +1726,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="0">
-        <v>5885.1035756574111</v>
+        <v>7664.0028283031725</v>
       </c>
       <c r="C76" s="0">
-        <v>1471.2758939143528</v>
+        <v>1916.0007070757931</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>78</v>
@@ -1743,16 +1743,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0">
-        <v>7483.3690993187847</v>
+        <v>7000.5652633944792</v>
       </c>
       <c r="C77" s="0">
-        <v>1870.8422748296962</v>
+        <v>1750.1413158486198</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E77" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1760,16 +1760,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="0">
-        <v>7436.4536713255648</v>
+        <v>6877.1106169691438</v>
       </c>
       <c r="C78" s="0">
-        <v>1859.1134178313912</v>
+        <v>1719.277654242286</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>80</v>
       </c>
       <c r="E78" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1777,10 +1777,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="0">
-        <v>7578.6877811913291</v>
+        <v>7052.3678344787877</v>
       </c>
       <c r="C79" s="0">
-        <v>1894.6719452978323</v>
+        <v>1763.0919586196969</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>81</v>
@@ -1794,16 +1794,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="0">
-        <v>5721.2997874558532</v>
+        <v>7759.6757623196445</v>
       </c>
       <c r="C80" s="0">
-        <v>1430.3249468639633</v>
+        <v>1939.9189405799111</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>82</v>
       </c>
       <c r="E80" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1811,10 +1811,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="0">
-        <v>7307.3473567035498</v>
+        <v>6874.3527220437536</v>
       </c>
       <c r="C81" s="0">
-        <v>1826.8368391758875</v>
+        <v>1718.5881805109384</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>83</v>
@@ -1828,10 +1828,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="0">
-        <v>5798.838852855205</v>
+        <v>6241.1890559339527</v>
       </c>
       <c r="C82" s="0">
-        <v>1449.7097132138013</v>
+        <v>1560.2972639834882</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>84</v>
@@ -1845,10 +1845,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="0">
-        <v>6583.3143777490213</v>
+        <v>5779.9262779469591</v>
       </c>
       <c r="C83" s="0">
-        <v>1645.8285944372553</v>
+        <v>1444.9815694867398</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>85</v>
@@ -1862,10 +1862,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="0">
-        <v>7929.5202893409205</v>
+        <v>6226.8023070272247</v>
       </c>
       <c r="C84" s="0">
-        <v>1982.3800723352301</v>
+        <v>1556.7005767568062</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>86</v>
@@ -1879,10 +1879,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="0">
-        <v>5631.8947890580484</v>
+        <v>7563.8825112110753</v>
       </c>
       <c r="C85" s="0">
-        <v>1407.9736972645121</v>
+        <v>1890.9706278027688</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>87</v>
@@ -1896,10 +1896,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="0">
-        <v>7163.6181027749035</v>
+        <v>5683.3568422132294</v>
       </c>
       <c r="C86" s="0">
-        <v>1790.9045256937259</v>
+        <v>1420.8392105533073</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>88</v>
@@ -1913,10 +1913,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="0">
-        <v>6853.606515134401</v>
+        <v>7392.3065729783757</v>
       </c>
       <c r="C87" s="0">
-        <v>1713.4016287836002</v>
+        <v>1848.0766432445939</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>89</v>
@@ -1930,16 +1930,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="0">
-        <v>7797.0245322703995</v>
+        <v>6456.750685016812</v>
       </c>
       <c r="C88" s="0">
-        <v>1949.2561330675999</v>
+        <v>1614.187671254203</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>90</v>
       </c>
       <c r="E88" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1947,10 +1947,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="0">
-        <v>5576.2879890669456</v>
+        <v>6774.9041357400674</v>
       </c>
       <c r="C89" s="0">
-        <v>1394.0719972667364</v>
+        <v>1693.7260339350169</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>91</v>
@@ -1964,10 +1964,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="0">
-        <v>7966.6362998923832</v>
+        <v>7823.2593248373196</v>
       </c>
       <c r="C90" s="0">
-        <v>1991.6590749730958</v>
+        <v>1955.8148312093299</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>92</v>
@@ -1981,16 +1981,16 @@
         <v>90</v>
       </c>
       <c r="B91" s="0">
-        <v>5587.4746795619558</v>
+        <v>7070.0138926844065</v>
       </c>
       <c r="C91" s="0">
-        <v>1396.8686698904889</v>
+        <v>1767.5034731711016</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>93</v>
       </c>
       <c r="E91" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1998,10 +1998,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="0">
-        <v>6852.237840976637</v>
+        <v>7670.5135137866828</v>
       </c>
       <c r="C92" s="0">
-        <v>1713.0594602441593</v>
+        <v>1917.6283784466707</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>94</v>
@@ -2015,10 +2015,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="0">
-        <v>7932.6182325147383</v>
+        <v>7625.177698821577</v>
       </c>
       <c r="C93" s="0">
-        <v>1983.1545581286846</v>
+        <v>1906.2944247053942</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>95</v>
@@ -2032,16 +2032,16 @@
         <v>93</v>
       </c>
       <c r="B94" s="0">
-        <v>5621.6967733409538</v>
+        <v>6614.264479911164</v>
       </c>
       <c r="C94" s="0">
-        <v>1405.4241933352384</v>
+        <v>1653.566119977791</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>96</v>
       </c>
       <c r="E94" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2049,16 +2049,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="0">
-        <v>7542.3853686922521</v>
+        <v>7407.0167612563673</v>
       </c>
       <c r="C95" s="0">
-        <v>1885.596342173063</v>
+        <v>1851.7541903140918</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>97</v>
       </c>
       <c r="E95" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2066,10 +2066,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="0">
-        <v>6112.1572301140286</v>
+        <v>6845.6678631500636</v>
       </c>
       <c r="C96" s="0">
-        <v>1528.0393075285072</v>
+        <v>1711.4169657875159</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>98</v>
@@ -2083,16 +2083,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="0">
-        <v>6221.821185135881</v>
+        <v>6489.7694309361414</v>
       </c>
       <c r="C97" s="0">
-        <v>1555.4552962839703</v>
+        <v>1622.4423577340353</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>99</v>
       </c>
       <c r="E97" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2100,10 +2100,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="0">
-        <v>6684.6263601386845</v>
+        <v>6551.9614871582926</v>
       </c>
       <c r="C98" s="0">
-        <v>1671.1565900346711</v>
+        <v>1637.9903717895731</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>100</v>
@@ -2117,10 +2117,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="0">
-        <v>5659.1500975202116</v>
+        <v>5875.6708849394099</v>
       </c>
       <c r="C99" s="0">
-        <v>1414.7875243800529</v>
+        <v>1468.9177212348525</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>101</v>
@@ -2134,10 +2134,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="0">
-        <v>7359.6596282463233</v>
+        <v>6111.4467405830619</v>
       </c>
       <c r="C100" s="0">
-        <v>1839.9149070615808</v>
+        <v>1527.8616851457655</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>102</v>
@@ -2151,10 +2151,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="0">
-        <v>7352.6451511080595</v>
+        <v>5557.7212757143761</v>
       </c>
       <c r="C101" s="0">
-        <v>1838.1612877770149</v>
+        <v>1389.430318928594</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>103</v>
@@ -2168,10 +2168,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="0">
-        <v>6888.601622771308</v>
+        <v>5599.3326585438517</v>
       </c>
       <c r="C102" s="0">
-        <v>1722.150405692827</v>
+        <v>1399.8331646359629</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>104</v>
@@ -2185,10 +2185,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="0">
-        <v>6910.1593729004671</v>
+        <v>5582.4834564467501</v>
       </c>
       <c r="C103" s="0">
-        <v>1727.5398432251168</v>
+        <v>1395.6208641116875</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>105</v>
@@ -2202,10 +2202,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="0">
-        <v>6496.0363362146818</v>
+        <v>7553.8028808256568</v>
       </c>
       <c r="C104" s="0">
-        <v>1624.0090840536704</v>
+        <v>1888.4507202064142</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>106</v>
@@ -2219,10 +2219,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="0">
-        <v>7181.3383511578095</v>
+        <v>6363.907393157062</v>
       </c>
       <c r="C105" s="0">
-        <v>1795.3345877894524</v>
+        <v>1590.9768482892655</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>107</v>
@@ -2236,16 +2236,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="0">
-        <v>7813.9896387368171</v>
+        <v>7365.9792584154575</v>
       </c>
       <c r="C106" s="0">
-        <v>1953.4974096842043</v>
+        <v>1841.4948146038644</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>108</v>
       </c>
       <c r="E106" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2253,10 +2253,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="0">
-        <v>7586.4501650682732</v>
+        <v>5875.8994081891833</v>
       </c>
       <c r="C107" s="0">
-        <v>1896.6125412670683</v>
+        <v>1468.9748520472958</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>109</v>
@@ -2270,16 +2270,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="0">
-        <v>6091.4356823874341</v>
+        <v>7284.4533519760025</v>
       </c>
       <c r="C108" s="0">
-        <v>1522.8589205968585</v>
+        <v>1821.1133379940006</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>110</v>
       </c>
       <c r="E108" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -2287,10 +2287,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="0">
-        <v>7027.2307804092397</v>
+        <v>7650.5962813226342</v>
       </c>
       <c r="C109" s="0">
-        <v>1756.8076951023099</v>
+        <v>1912.6490703306586</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>111</v>
@@ -2304,10 +2304,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="0">
-        <v>6136.4777845760873</v>
+        <v>6266.1620436991125</v>
       </c>
       <c r="C110" s="0">
-        <v>1534.1194461440218</v>
+        <v>1566.5405109247781</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>112</v>
@@ -2321,10 +2321,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="0">
-        <v>6496.2841136633233</v>
+        <v>7173.8992036707232</v>
       </c>
       <c r="C111" s="0">
-        <v>1624.0710284158308</v>
+        <v>1793.4748009176808</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>113</v>
@@ -2338,10 +2338,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="0">
-        <v>6236.528047071808</v>
+        <v>6885.9526618061091</v>
       </c>
       <c r="C112" s="0">
-        <v>1559.132011767952</v>
+        <v>1721.4881654515273</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>114</v>
@@ -2355,10 +2355,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="0">
-        <v>5603.1695147976025</v>
+        <v>6642.4143341009549</v>
       </c>
       <c r="C113" s="0">
-        <v>1400.7923786994006</v>
+        <v>1660.6035835252387</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>115</v>
@@ -2372,10 +2372,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="0">
-        <v>7652.3748809388617</v>
+        <v>7102.0731483817362</v>
       </c>
       <c r="C114" s="0">
-        <v>1913.0937202347154</v>
+        <v>1775.5182870954341</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>116</v>
@@ -2389,10 +2389,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="0">
-        <v>5603.8772272777605</v>
+        <v>7102.1376952478877</v>
       </c>
       <c r="C115" s="0">
-        <v>1400.9693068194401</v>
+        <v>1775.5344238119719</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>117</v>
@@ -2406,10 +2406,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="0">
-        <v>6195.8520700689842</v>
+        <v>6722.4842529297166</v>
       </c>
       <c r="C116" s="0">
-        <v>1548.963017517246</v>
+        <v>1680.6210632324292</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>118</v>
@@ -2423,16 +2423,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="0">
-        <v>7569.9102586292829</v>
+        <v>7431.9023586121048</v>
       </c>
       <c r="C117" s="0">
-        <v>1892.4775646573207</v>
+        <v>1857.9755896530262</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>119</v>
       </c>
       <c r="E117" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -2440,16 +2440,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="0">
-        <v>6282.0823306816928</v>
+        <v>7473.403710321646</v>
       </c>
       <c r="C118" s="0">
-        <v>1570.5205826704232</v>
+        <v>1868.3509275804115</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>120</v>
       </c>
       <c r="E118" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2457,16 +2457,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="0">
-        <v>6455.7994524114711</v>
+        <v>6682.8608463990913</v>
       </c>
       <c r="C119" s="0">
-        <v>1613.9498631028678</v>
+        <v>1670.7152115997728</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>121</v>
       </c>
       <c r="E119" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -2474,16 +2474,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="0">
-        <v>6093.3900238095648</v>
+        <v>7553.4448330387695</v>
       </c>
       <c r="C120" s="0">
-        <v>1523.3475059523912</v>
+        <v>1888.3612082596924</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>122</v>
       </c>
       <c r="E120" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2491,10 +2491,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="0">
-        <v>7935.6521919963743</v>
+        <v>7568.8731310995854</v>
       </c>
       <c r="C121" s="0">
-        <v>1983.9130479990936</v>
+        <v>1892.2182827748964</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>123</v>

--- a/data/virtual_customers/customers_metadata.xlsx
+++ b/data/virtual_customers/customers_metadata.xlsx
@@ -708,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>5780.545988302074</v>
+        <v>5826.3680344547201</v>
       </c>
       <c r="C2" s="0">
-        <v>1445.1364970755185</v>
+        <v>1456.59200861368</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>4</v>
@@ -725,16 +725,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>7136.0106623252223</v>
+        <v>7260.3979959119661</v>
       </c>
       <c r="C3" s="0">
-        <v>1784.0026655813056</v>
+        <v>1815.0994989779915</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -742,16 +742,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>7753.1945359177589</v>
+        <v>7405.3328208746798</v>
       </c>
       <c r="C4" s="0">
-        <v>1938.2986339794397</v>
+        <v>1851.3332052186699</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -759,10 +759,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>6002.0792355650237</v>
+        <v>7085.6938187683982</v>
       </c>
       <c r="C5" s="0">
-        <v>1500.5198088912559</v>
+        <v>1771.4234546920995</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>7</v>
@@ -776,16 +776,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>5968.2566106246295</v>
+        <v>7817.469655609415</v>
       </c>
       <c r="C6" s="0">
-        <v>1492.0641526561574</v>
+        <v>1954.3674139023537</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -793,16 +793,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>6621.8793476086721</v>
+        <v>5819.7984726882987</v>
       </c>
       <c r="C7" s="0">
-        <v>1655.469836902168</v>
+        <v>1454.9496181720747</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -810,10 +810,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>6388.0381669288427</v>
+        <v>6979.5091845189136</v>
       </c>
       <c r="C8" s="0">
-        <v>1597.0095417322107</v>
+        <v>1744.8772961297284</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>10</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>5795.085801707959</v>
+        <v>6441.7169301119184</v>
       </c>
       <c r="C9" s="0">
-        <v>1448.7714504269898</v>
+        <v>1610.4292325279796</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>11</v>
@@ -844,10 +844,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>5740.7421947898365</v>
+        <v>6691.7392387886393</v>
       </c>
       <c r="C10" s="0">
-        <v>1435.1855486974591</v>
+        <v>1672.9348096971598</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>12</v>
@@ -861,16 +861,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>7258.9901774276814</v>
+        <v>5821.5736576734898</v>
       </c>
       <c r="C11" s="0">
-        <v>1814.7475443569203</v>
+        <v>1455.3934144183725</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -878,16 +878,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>5722.8901257255238</v>
+        <v>6275.6229868068122</v>
       </c>
       <c r="C12" s="0">
-        <v>1430.722531431381</v>
+        <v>1568.905746701703</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -895,10 +895,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>5850.4214771956831</v>
+        <v>6497.2310001061578</v>
       </c>
       <c r="C13" s="0">
-        <v>1462.6053692989208</v>
+        <v>1624.3077500265395</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>15</v>
@@ -912,16 +912,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>5774.4128898702238</v>
+        <v>6177.2154794115932</v>
       </c>
       <c r="C14" s="0">
-        <v>1443.603222467556</v>
+        <v>1544.3038698528983</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -929,10 +929,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>6867.3916749462151</v>
+        <v>7561.9093609042502</v>
       </c>
       <c r="C15" s="0">
-        <v>1716.8479187365538</v>
+        <v>1890.4773402260626</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>17</v>
@@ -946,10 +946,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>7154.4436035235667</v>
+        <v>7171.6862271576338</v>
       </c>
       <c r="C16" s="0">
-        <v>1788.6109008808917</v>
+        <v>1792.9215567894084</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>18</v>
@@ -963,10 +963,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>6258.0022252831859</v>
+        <v>6059.7120913653534</v>
       </c>
       <c r="C17" s="0">
-        <v>1564.5005563207965</v>
+        <v>1514.9280228413384</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>19</v>
@@ -980,16 +980,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>6673.6907021914658</v>
+        <v>7481.0528446002054</v>
       </c>
       <c r="C18" s="0">
-        <v>1668.4226755478664</v>
+        <v>1870.2632111500513</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -997,10 +997,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>7001.0179585493606</v>
+        <v>6708.3075416204156</v>
       </c>
       <c r="C19" s="0">
-        <v>1750.2544896373402</v>
+        <v>1677.0768854051039</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>21</v>
@@ -1014,10 +1014,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>5773.7514231395489</v>
+        <v>5940.9374394620618</v>
       </c>
       <c r="C20" s="0">
-        <v>1443.4378557848872</v>
+        <v>1485.2343598655154</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>22</v>
@@ -1031,16 +1031,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>5743.6079612459598</v>
+        <v>7614.1730466950848</v>
       </c>
       <c r="C21" s="0">
-        <v>1435.90199031149</v>
+        <v>1903.5432616737712</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1048,16 +1048,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>5935.9117127800537</v>
+        <v>5812.3490903145048</v>
       </c>
       <c r="C22" s="0">
-        <v>1483.9779281950134</v>
+        <v>1453.0872725786262</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1065,10 +1065,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>5815.7309795022129</v>
+        <v>7849.1273400676801</v>
       </c>
       <c r="C23" s="0">
-        <v>1453.9327448755532</v>
+        <v>1962.28183501692</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>25</v>
@@ -1082,16 +1082,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>5776.3846128002306</v>
+        <v>5929.6504730996157</v>
       </c>
       <c r="C24" s="0">
-        <v>1444.0961532000576</v>
+        <v>1482.4126182749039</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1099,16 +1099,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>6294.8023618619691</v>
+        <v>6198.1705133389642</v>
       </c>
       <c r="C25" s="0">
-        <v>1573.7005904654923</v>
+        <v>1549.542628334741</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1116,10 +1116,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>5670.8849199756214</v>
+        <v>7042.7894411094439</v>
       </c>
       <c r="C26" s="0">
-        <v>1417.7212299939054</v>
+        <v>1760.697360277361</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>28</v>
@@ -1133,10 +1133,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>7333.3460422838798</v>
+        <v>6874.9791784992358</v>
       </c>
       <c r="C27" s="0">
-        <v>1833.3365105709699</v>
+        <v>1718.7447946248089</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>29</v>
@@ -1150,10 +1150,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>7200.460850639658</v>
+        <v>6390.6879811028448</v>
       </c>
       <c r="C28" s="0">
-        <v>1800.1152126599145</v>
+        <v>1597.6719952757112</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>30</v>
@@ -1167,10 +1167,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>7333.3466142222896</v>
+        <v>6376.6089870801225</v>
       </c>
       <c r="C29" s="0">
-        <v>1833.3366535555724</v>
+        <v>1594.1522467700306</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>31</v>
@@ -1184,16 +1184,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>5530.2317158915712</v>
+        <v>6189.3818254059934</v>
       </c>
       <c r="C30" s="0">
-        <v>1382.5579289728928</v>
+        <v>1547.3454563514983</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1201,16 +1201,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>7866.5934268016535</v>
+        <v>5693.3054175256639</v>
       </c>
       <c r="C31" s="0">
-        <v>1966.6483567004134</v>
+        <v>1423.326354381416</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1218,10 +1218,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>6654.3743712597825</v>
+        <v>5709.7293249906434</v>
       </c>
       <c r="C32" s="0">
-        <v>1663.5935928149456</v>
+        <v>1427.4323312476608</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>34</v>
@@ -1235,16 +1235,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>5557.0509409926799</v>
+        <v>6590.0651236298063</v>
       </c>
       <c r="C33" s="0">
-        <v>1389.26273524817</v>
+        <v>1647.5162809074516</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>35</v>
       </c>
       <c r="E33" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1252,10 +1252,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="0">
-        <v>5502.3529339825027</v>
+        <v>7181.9658171913106</v>
       </c>
       <c r="C34" s="0">
-        <v>1375.5882334956257</v>
+        <v>1795.4914542978277</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>36</v>
@@ -1269,16 +1269,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0">
-        <v>6542.6957383827848</v>
+        <v>6753.4399380483956</v>
       </c>
       <c r="C35" s="0">
-        <v>1635.6739345956962</v>
+        <v>1688.3599845120989</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>37</v>
       </c>
       <c r="E35" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1286,10 +1286,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="0">
-        <v>7458.419339512744</v>
+        <v>6983.9491031326215</v>
       </c>
       <c r="C36" s="0">
-        <v>1864.604834878186</v>
+        <v>1745.9872757831554</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>38</v>
@@ -1303,10 +1303,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="0">
-        <v>7374.5588546520867</v>
+        <v>6222.1404155132632</v>
       </c>
       <c r="C37" s="0">
-        <v>1843.6397136630217</v>
+        <v>1555.5351038783158</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>39</v>
@@ -1320,10 +1320,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="0">
-        <v>5567.0189205384768</v>
+        <v>7416.392820232586</v>
       </c>
       <c r="C38" s="0">
-        <v>1391.7547301346192</v>
+        <v>1854.0982050581465</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>40</v>
@@ -1337,10 +1337,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="0">
-        <v>5644.7594944729253</v>
+        <v>6111.6918370693629</v>
       </c>
       <c r="C39" s="0">
-        <v>1411.1898736182313</v>
+        <v>1527.9229592673407</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>41</v>
@@ -1354,10 +1354,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="0">
-        <v>5668.9487956904495</v>
+        <v>5703.2112384858819</v>
       </c>
       <c r="C40" s="0">
-        <v>1417.2371989226124</v>
+        <v>1425.8028096214705</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>42</v>
@@ -1371,16 +1371,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0">
-        <v>6026.5234831545822</v>
+        <v>6474.9383349711015</v>
       </c>
       <c r="C41" s="0">
-        <v>1506.6308707886456</v>
+        <v>1618.7345837427754</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E41" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1388,10 +1388,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="0">
-        <v>6060.1881507851231</v>
+        <v>7331.8301703785783</v>
       </c>
       <c r="C42" s="0">
-        <v>1515.0470376962808</v>
+        <v>1832.9575425946446</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>44</v>
@@ -1405,10 +1405,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="0">
-        <v>7918.0503221153285</v>
+        <v>7138.4739199832311</v>
       </c>
       <c r="C43" s="0">
-        <v>1979.5125805288321</v>
+        <v>1784.6184799958078</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>45</v>
@@ -1422,10 +1422,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="0">
-        <v>6610.9627403195773</v>
+        <v>6969.255072545011</v>
       </c>
       <c r="C44" s="0">
-        <v>1652.7406850798943</v>
+        <v>1742.3137681362527</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>46</v>
@@ -1439,10 +1439,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="0">
-        <v>6696.0538665581007</v>
+        <v>6476.388907993789</v>
       </c>
       <c r="C45" s="0">
-        <v>1674.0134666395252</v>
+        <v>1619.0972269984472</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>47</v>
@@ -1456,10 +1456,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="0">
-        <v>5685.3305378612758</v>
+        <v>7449.0246561800823</v>
       </c>
       <c r="C46" s="0">
-        <v>1421.332634465319</v>
+        <v>1862.2561640450206</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>48</v>
@@ -1473,10 +1473,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="0">
-        <v>5624.7259639465583</v>
+        <v>5726.3798763484738</v>
       </c>
       <c r="C47" s="0">
-        <v>1406.1814909866396</v>
+        <v>1431.5949690871184</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>49</v>
@@ -1490,16 +1490,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0">
-        <v>7707.0079789641495</v>
+        <v>5611.2171789227332</v>
       </c>
       <c r="C48" s="0">
-        <v>1926.7519947410374</v>
+        <v>1402.8042947306833</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>50</v>
       </c>
       <c r="E48" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1507,10 +1507,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="0">
-        <v>6344.7132561443977</v>
+        <v>6837.4278503265214</v>
       </c>
       <c r="C49" s="0">
-        <v>1586.1783140360994</v>
+        <v>1709.3569625816303</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>51</v>
@@ -1524,16 +1524,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0">
-        <v>7443.3425622952673</v>
+        <v>6452.4928861207609</v>
       </c>
       <c r="C50" s="0">
-        <v>1860.8356405738168</v>
+        <v>1613.1232215301902</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>52</v>
       </c>
       <c r="E50" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1541,10 +1541,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="0">
-        <v>7861.37271617644</v>
+        <v>5618.5259023990711</v>
       </c>
       <c r="C51" s="0">
-        <v>1965.34317904411</v>
+        <v>1404.6314755997678</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>53</v>
@@ -1558,10 +1558,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="0">
-        <v>6939.1984497921057</v>
+        <v>6743.583301689132</v>
       </c>
       <c r="C52" s="0">
-        <v>1734.7996124480264</v>
+        <v>1685.895825422283</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>54</v>
@@ -1575,10 +1575,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="0">
-        <v>5999.2180571874524</v>
+        <v>6443.9173386053535</v>
       </c>
       <c r="C53" s="0">
-        <v>1499.8045142968631</v>
+        <v>1610.9793346513384</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>55</v>
@@ -1592,16 +1592,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0">
-        <v>6333.136667043259</v>
+        <v>6785.2125803286117</v>
       </c>
       <c r="C54" s="0">
-        <v>1583.2841667608147</v>
+        <v>1696.3031450821529</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>56</v>
       </c>
       <c r="E54" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1609,10 +1609,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="0">
-        <v>6037.3320408411964</v>
+        <v>7377.7580284650239</v>
       </c>
       <c r="C55" s="0">
-        <v>1509.3330102102991</v>
+        <v>1844.439507116256</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>57</v>
@@ -1626,10 +1626,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="0">
-        <v>6349.5683145518678</v>
+        <v>6319.9062763531065</v>
       </c>
       <c r="C56" s="0">
-        <v>1587.392078637967</v>
+        <v>1579.9765690882766</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>58</v>
@@ -1643,10 +1643,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="0">
-        <v>7916.3296198697126</v>
+        <v>6402.5243550937894</v>
       </c>
       <c r="C57" s="0">
-        <v>1979.0824049674281</v>
+        <v>1600.6310887734473</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>59</v>
@@ -1660,10 +1660,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="0">
-        <v>7559.5107422951005</v>
+        <v>5996.6312795215736</v>
       </c>
       <c r="C58" s="0">
-        <v>1889.8776855737751</v>
+        <v>1499.1578198803934</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>60</v>
@@ -1677,10 +1677,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="0">
-        <v>7405.8884148834077</v>
+        <v>7009.2890952211192</v>
       </c>
       <c r="C59" s="0">
-        <v>1851.4721037208519</v>
+        <v>1752.3222738052798</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>61</v>
@@ -1694,10 +1694,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="0">
-        <v>6935.2077710275262</v>
+        <v>7906.482400671739</v>
       </c>
       <c r="C60" s="0">
-        <v>1733.8019427568815</v>
+        <v>1976.6206001679348</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>62</v>
@@ -1711,16 +1711,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0">
-        <v>6999.2175661990341</v>
+        <v>6330.9563344775524</v>
       </c>
       <c r="C61" s="0">
-        <v>1749.8043915497585</v>
+        <v>1582.7390836193881</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>63</v>
       </c>
       <c r="E61" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1728,10 +1728,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="0">
-        <v>7423.1830793349181</v>
+        <v>7129.9398943721008</v>
       </c>
       <c r="C62" s="0">
-        <v>1855.7957698337295</v>
+        <v>1782.4849735930252</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>64</v>
@@ -1745,10 +1745,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="0">
-        <v>7459.0242653712157</v>
+        <v>6682.3388408850824</v>
       </c>
       <c r="C63" s="0">
-        <v>1864.7560663428039</v>
+        <v>1670.5847102212706</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>65</v>
@@ -1762,10 +1762,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="0">
-        <v>7305.7108734897265</v>
+        <v>6029.1818999741699</v>
       </c>
       <c r="C64" s="0">
-        <v>1826.4277183724316</v>
+        <v>1507.2954749935425</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>66</v>
@@ -1779,10 +1779,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="0">
-        <v>7097.9898626160166</v>
+        <v>7559.7319451437752</v>
       </c>
       <c r="C65" s="0">
-        <v>1774.4974656540041</v>
+        <v>1889.9329862859438</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>67</v>
@@ -1796,10 +1796,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="0">
-        <v>7053.4895235091726</v>
+        <v>6791.2961209185232</v>
       </c>
       <c r="C66" s="0">
-        <v>1763.3723808772932</v>
+        <v>1697.8240302296308</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>68</v>
@@ -1813,10 +1813,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="0">
-        <v>7258.469786606488</v>
+        <v>5899.1963102909631</v>
       </c>
       <c r="C67" s="0">
-        <v>1814.617446651622</v>
+        <v>1474.7990775727408</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>69</v>
@@ -1830,16 +1830,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="0">
-        <v>7851.2628542076418</v>
+        <v>6651.9744074829678</v>
       </c>
       <c r="C68" s="0">
-        <v>1962.8157135519104</v>
+        <v>1662.9936018707419</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E68" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1847,10 +1847,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="0">
-        <v>5552.9988080444537</v>
+        <v>6529.4783851165885</v>
       </c>
       <c r="C69" s="0">
-        <v>1388.2497020111134</v>
+        <v>1632.3695962791471</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>71</v>
@@ -1864,10 +1864,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="0">
-        <v>5718.3478659740458</v>
+        <v>5780.0760640624994</v>
       </c>
       <c r="C70" s="0">
-        <v>1429.5869664935115</v>
+        <v>1445.0190160156249</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>72</v>
@@ -1881,10 +1881,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="0">
-        <v>6473.9312560531898</v>
+        <v>7905.0719752230143</v>
       </c>
       <c r="C71" s="0">
-        <v>1618.4828140132975</v>
+        <v>1976.2679938057536</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>73</v>
@@ -1898,10 +1898,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="0">
-        <v>7908.1701909090998</v>
+        <v>6202.4230993260107</v>
       </c>
       <c r="C72" s="0">
-        <v>1977.042547727275</v>
+        <v>1550.6057748315027</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>74</v>
@@ -1915,16 +1915,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="0">
-        <v>5552.3322229085989</v>
+        <v>6256.9496535179778</v>
       </c>
       <c r="C73" s="0">
-        <v>1388.0830557271497</v>
+        <v>1564.2374133794945</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>75</v>
       </c>
       <c r="E73" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1932,16 +1932,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="0">
-        <v>6859.6878510233828</v>
+        <v>6124.9163228378065</v>
       </c>
       <c r="C74" s="0">
-        <v>1714.9219627558457</v>
+        <v>1531.2290807094516</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>76</v>
       </c>
       <c r="E74" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1949,16 +1949,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="0">
-        <v>7051.1843603717916</v>
+        <v>7410.0947599340261</v>
       </c>
       <c r="C75" s="0">
-        <v>1762.7960900929479</v>
+        <v>1852.5236899835065</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>77</v>
       </c>
       <c r="E75" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1966,10 +1966,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="0">
-        <v>7163.6780370563483</v>
+        <v>7281.746771297011</v>
       </c>
       <c r="C76" s="0">
-        <v>1790.9195092640871</v>
+        <v>1820.4366928242528</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>78</v>
@@ -1983,16 +1983,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="0">
-        <v>6071.4317621128821</v>
+        <v>7403.9146314252612</v>
       </c>
       <c r="C77" s="0">
-        <v>1517.8579405282205</v>
+        <v>1850.9786578563153</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>79</v>
       </c>
       <c r="E77" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2000,10 +2000,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="0">
-        <v>6552.4617527807522</v>
+        <v>5509.7027058347385</v>
       </c>
       <c r="C78" s="0">
-        <v>1638.1154381951881</v>
+        <v>1377.4256764586846</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>80</v>
@@ -2017,10 +2017,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="0">
-        <v>5667.9532098069385</v>
+        <v>6764.9794997725921</v>
       </c>
       <c r="C79" s="0">
-        <v>1416.9883024517346</v>
+        <v>1691.244874943148</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>81</v>
@@ -2034,10 +2034,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="0">
-        <v>5872.1456955229987</v>
+        <v>5575.4866277815454</v>
       </c>
       <c r="C80" s="0">
-        <v>1468.0364238807497</v>
+        <v>1393.8716569453863</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>82</v>
@@ -2051,16 +2051,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="0">
-        <v>7639.9002154730279</v>
+        <v>5932.8441110618933</v>
       </c>
       <c r="C81" s="0">
-        <v>1909.975053868257</v>
+        <v>1483.2110277654733</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>83</v>
       </c>
       <c r="E81" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2068,16 +2068,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="0">
-        <v>6121.4261333135337</v>
+        <v>7712.8228460736282</v>
       </c>
       <c r="C82" s="0">
-        <v>1530.3565333283834</v>
+        <v>1928.205711518407</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>84</v>
       </c>
       <c r="E82" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2085,10 +2085,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="0">
-        <v>5734.5402486826961</v>
+        <v>7060.3337581598043</v>
       </c>
       <c r="C83" s="0">
-        <v>1433.635062170674</v>
+        <v>1765.0834395399511</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>85</v>
@@ -2102,16 +2102,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0">
-        <v>6397.3182510597226</v>
+        <v>6335.4059611945904</v>
       </c>
       <c r="C84" s="0">
-        <v>1599.3295627649306</v>
+        <v>1583.8514902986476</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>86</v>
       </c>
       <c r="E84" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2119,10 +2119,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="0">
-        <v>6681.1175232393225</v>
+        <v>6045.564104000151</v>
       </c>
       <c r="C85" s="0">
-        <v>1670.2793808098306</v>
+        <v>1511.3910260000378</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>87</v>
@@ -2136,16 +2136,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="0">
-        <v>5765.1393730660102</v>
+        <v>6128.5460992196104</v>
       </c>
       <c r="C86" s="0">
-        <v>1441.2848432665025</v>
+        <v>1532.1365248049026</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>88</v>
       </c>
       <c r="E86" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2153,10 +2153,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="0">
-        <v>6329.7668447385513</v>
+        <v>6441.0127202362219</v>
       </c>
       <c r="C87" s="0">
-        <v>1582.4417111846378</v>
+        <v>1610.2531800590555</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>89</v>
@@ -2170,10 +2170,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="0">
-        <v>6977.0296140252267</v>
+        <v>5917.8225094554264</v>
       </c>
       <c r="C88" s="0">
-        <v>1744.2574035063067</v>
+        <v>1479.4556273638566</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>90</v>
@@ -2187,10 +2187,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="0">
-        <v>7530.8340269618202</v>
+        <v>6537.1203340929524</v>
       </c>
       <c r="C89" s="0">
-        <v>1882.7085067404551</v>
+        <v>1634.2800835232381</v>
       </c>
       <c r="D89" s="0" t="s">
         <v>91</v>
@@ -2204,10 +2204,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="0">
-        <v>6044.5778563916792</v>
+        <v>6749.6430964700976</v>
       </c>
       <c r="C90" s="0">
-        <v>1511.1444640979198</v>
+        <v>1687.4107741175244</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>92</v>
@@ -2221,10 +2221,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="0">
-        <v>6099.7553328153899</v>
+        <v>7415.9828280948923</v>
       </c>
       <c r="C91" s="0">
-        <v>1524.9388332038475</v>
+        <v>1853.9957070237231</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>93</v>
@@ -2238,10 +2238,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="0">
-        <v>6787.6446917321646</v>
+        <v>6877.2473838303413</v>
       </c>
       <c r="C92" s="0">
-        <v>1696.9111729330411</v>
+        <v>1719.3118459575853</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>94</v>
@@ -2255,10 +2255,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="0">
-        <v>7134.5428085478252</v>
+        <v>6386.0581483857859</v>
       </c>
       <c r="C93" s="0">
-        <v>1783.6357021369563</v>
+        <v>1596.5145370964465</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>95</v>
@@ -2272,10 +2272,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="0">
-        <v>7233.7760763422712</v>
+        <v>6837.9517513354203</v>
       </c>
       <c r="C94" s="0">
-        <v>1808.4440190855678</v>
+        <v>1709.4879378338551</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>96</v>
@@ -2289,10 +2289,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="0">
-        <v>7806.035027578424</v>
+        <v>6813.4107803671477</v>
       </c>
       <c r="C95" s="0">
-        <v>1951.508756894606</v>
+        <v>1703.3526950917869</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>97</v>
@@ -2306,16 +2306,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="0">
-        <v>7521.9373183001035</v>
+        <v>7603.1461374795044</v>
       </c>
       <c r="C96" s="0">
-        <v>1880.4843295750259</v>
+        <v>1900.7865343698761</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>98</v>
       </c>
       <c r="E96" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2323,10 +2323,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="0">
-        <v>7659.0427126158511</v>
+        <v>6386.4209794452408</v>
       </c>
       <c r="C97" s="0">
-        <v>1914.7606781539628</v>
+        <v>1596.6052448613102</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>99</v>
@@ -2340,10 +2340,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="0">
-        <v>6508.1305512959007</v>
+        <v>6623.8963885253752</v>
       </c>
       <c r="C98" s="0">
-        <v>1627.0326378239752</v>
+        <v>1655.9740971313438</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>100</v>
@@ -2357,10 +2357,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="0">
-        <v>6973.9446159602412</v>
+        <v>7242.2202401912054</v>
       </c>
       <c r="C99" s="0">
-        <v>1743.4861539900603</v>
+        <v>1810.5550600478014</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>101</v>
@@ -2374,10 +2374,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="0">
-        <v>7510.7240972820291</v>
+        <v>6196.3583268824977</v>
       </c>
       <c r="C100" s="0">
-        <v>1877.6810243205073</v>
+        <v>1549.0895817206244</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>102</v>
@@ -2391,16 +2391,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="0">
-        <v>6527.3312984292916</v>
+        <v>6034.1777665112104</v>
       </c>
       <c r="C101" s="0">
-        <v>1631.8328246073229</v>
+        <v>1508.5444416278026</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>103</v>
       </c>
       <c r="E101" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -2408,10 +2408,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="0">
-        <v>5814.9389887228035</v>
+        <v>7782.9466160292104</v>
       </c>
       <c r="C102" s="0">
-        <v>1453.7347471807009</v>
+        <v>1945.7366540073026</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>104</v>
@@ -2425,10 +2425,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="0">
-        <v>6632.2199292249552</v>
+        <v>7510.5509454506846</v>
       </c>
       <c r="C103" s="0">
-        <v>1658.0549823062388</v>
+        <v>1877.6377363626711</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>105</v>
@@ -2442,10 +2442,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="0">
-        <v>6028.3821241399382</v>
+        <v>6634.3147364893648</v>
       </c>
       <c r="C104" s="0">
-        <v>1507.0955310349846</v>
+        <v>1658.5786841223412</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>106</v>
@@ -2459,16 +2459,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="0">
-        <v>5792.4195807304413</v>
+        <v>6223.756333309937</v>
       </c>
       <c r="C105" s="0">
-        <v>1448.1048951826103</v>
+        <v>1555.9390833274842</v>
       </c>
       <c r="D105" s="0" t="s">
         <v>107</v>
       </c>
       <c r="E105" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2476,10 +2476,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="0">
-        <v>7794.1666374513516</v>
+        <v>7054.8448907218162</v>
       </c>
       <c r="C106" s="0">
-        <v>1948.5416593628379</v>
+        <v>1763.7112226804541</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>108</v>
@@ -2493,16 +2493,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="0">
-        <v>7899.8665060515541</v>
+        <v>6848.3705415948325</v>
       </c>
       <c r="C107" s="0">
-        <v>1974.9666265128885</v>
+        <v>1712.0926353987081</v>
       </c>
       <c r="D107" s="0" t="s">
         <v>109</v>
       </c>
       <c r="E107" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -2510,10 +2510,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="0">
-        <v>7908.6781384673277</v>
+        <v>6293.1320831819339</v>
       </c>
       <c r="C108" s="0">
-        <v>1977.1695346168319</v>
+        <v>1573.2830207954835</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>110</v>
@@ -2527,10 +2527,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="0">
-        <v>5935.2685269535341</v>
+        <v>7303.2782801577523</v>
       </c>
       <c r="C109" s="0">
-        <v>1483.8171317383835</v>
+        <v>1825.8195700394381</v>
       </c>
       <c r="D109" s="0" t="s">
         <v>111</v>
@@ -2544,10 +2544,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="0">
-        <v>7419.2215245997777</v>
+        <v>7053.0690363211006</v>
       </c>
       <c r="C110" s="0">
-        <v>1854.8053811499444</v>
+        <v>1763.2672590802752</v>
       </c>
       <c r="D110" s="0" t="s">
         <v>112</v>
@@ -2561,10 +2561,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="0">
-        <v>6640.4176861954893</v>
+        <v>6550.3123829478664</v>
       </c>
       <c r="C111" s="0">
-        <v>1660.1044215488723</v>
+        <v>1637.5780957369666</v>
       </c>
       <c r="D111" s="0" t="s">
         <v>113</v>
@@ -2578,10 +2578,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="0">
-        <v>5609.0160974249911</v>
+        <v>6207.5209148129761</v>
       </c>
       <c r="C112" s="0">
-        <v>1402.2540243562478</v>
+        <v>1551.880228703244</v>
       </c>
       <c r="D112" s="0" t="s">
         <v>114</v>
@@ -2595,10 +2595,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="0">
-        <v>6362.7172789158949</v>
+        <v>5892.8995981043745</v>
       </c>
       <c r="C113" s="0">
-        <v>1590.6793197289737</v>
+        <v>1473.2248995260936</v>
       </c>
       <c r="D113" s="0" t="s">
         <v>115</v>
@@ -2612,16 +2612,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="0">
-        <v>7398.266606971375</v>
+        <v>6904.2956933273945</v>
       </c>
       <c r="C114" s="0">
-        <v>1849.5666517428438</v>
+        <v>1726.0739233318486</v>
       </c>
       <c r="D114" s="0" t="s">
         <v>116</v>
       </c>
       <c r="E114" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -2629,16 +2629,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="0">
-        <v>7653.7559057904691</v>
+        <v>5996.9136328599707</v>
       </c>
       <c r="C115" s="0">
-        <v>1913.4389764476173</v>
+        <v>1499.2284082149927</v>
       </c>
       <c r="D115" s="0" t="s">
         <v>117</v>
       </c>
       <c r="E115" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -2646,10 +2646,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="0">
-        <v>6079.3459532835868</v>
+        <v>6013.3559593749369</v>
       </c>
       <c r="C116" s="0">
-        <v>1519.8364883208967</v>
+        <v>1503.3389898437342</v>
       </c>
       <c r="D116" s="0" t="s">
         <v>118</v>
@@ -2663,10 +2663,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="0">
-        <v>6112.6810652315226</v>
+        <v>6264.2949262414877</v>
       </c>
       <c r="C117" s="0">
-        <v>1528.1702663078806</v>
+        <v>1566.0737315603719</v>
       </c>
       <c r="D117" s="0" t="s">
         <v>119</v>
@@ -2680,16 +2680,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="0">
-        <v>7784.4753880449625</v>
+        <v>6477.5546985363453</v>
       </c>
       <c r="C118" s="0">
-        <v>1946.1188470112406</v>
+        <v>1619.3886746340863</v>
       </c>
       <c r="D118" s="0" t="s">
         <v>120</v>
       </c>
       <c r="E118" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2697,16 +2697,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="0">
-        <v>5749.8055933338101</v>
+        <v>7746.7236396009739</v>
       </c>
       <c r="C119" s="0">
-        <v>1437.4513983334525</v>
+        <v>1936.6809099002435</v>
       </c>
       <c r="D119" s="0" t="s">
         <v>121</v>
       </c>
       <c r="E119" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -2714,16 +2714,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="0">
-        <v>6478.2426077091013</v>
+        <v>6386.7954500442083</v>
       </c>
       <c r="C120" s="0">
-        <v>1619.5606519272753</v>
+        <v>1596.6988625110521</v>
       </c>
       <c r="D120" s="0" t="s">
         <v>122</v>
       </c>
       <c r="E120" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -2731,16 +2731,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="0">
-        <v>7405.8210614396703</v>
+        <v>6236.197294791461</v>
       </c>
       <c r="C121" s="0">
-        <v>1851.4552653599176</v>
+        <v>1559.0493236978652</v>
       </c>
       <c r="D121" s="0" t="s">
         <v>123</v>
       </c>
       <c r="E121" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -2748,10 +2748,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="0">
-        <v>6807.8942656387981</v>
+        <v>6371.7464703697933</v>
       </c>
       <c r="C122" s="0">
-        <v>1701.9735664096995</v>
+        <v>1592.9366175924483</v>
       </c>
       <c r="D122" s="0" t="s">
         <v>124</v>
@@ -2765,16 +2765,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="0">
-        <v>6721.2707046732121</v>
+        <v>7097.6244180068425</v>
       </c>
       <c r="C123" s="0">
-        <v>1680.317676168303</v>
+        <v>1774.4061045017106</v>
       </c>
       <c r="D123" s="0" t="s">
         <v>125</v>
       </c>
       <c r="E123" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -2782,16 +2782,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="0">
-        <v>5685.3267366701211</v>
+        <v>6146.2224557958816</v>
       </c>
       <c r="C124" s="0">
-        <v>1421.3316841675303</v>
+        <v>1536.5556139489704</v>
       </c>
       <c r="D124" s="0" t="s">
         <v>126</v>
       </c>
       <c r="E124" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -2799,10 +2799,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="0">
-        <v>7661.8708253559253</v>
+        <v>7153.7581025473028</v>
       </c>
       <c r="C125" s="0">
-        <v>1915.4677063389813</v>
+        <v>1788.4395256368257</v>
       </c>
       <c r="D125" s="0" t="s">
         <v>127</v>
@@ -2816,16 +2816,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="0">
-        <v>5897.8070812967262</v>
+        <v>7949.9602022443296</v>
       </c>
       <c r="C126" s="0">
-        <v>1474.4517703241816</v>
+        <v>1987.4900505610824</v>
       </c>
       <c r="D126" s="0" t="s">
         <v>128</v>
       </c>
       <c r="E126" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -2833,16 +2833,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="0">
-        <v>6807.912255232095</v>
+        <v>7986.3146050984251</v>
       </c>
       <c r="C127" s="0">
-        <v>1701.9780638080238</v>
+        <v>1996.5786512746063</v>
       </c>
       <c r="D127" s="0" t="s">
         <v>129</v>
       </c>
       <c r="E127" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -2850,10 +2850,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="0">
-        <v>5628.9921939809574</v>
+        <v>6167.0095689081945</v>
       </c>
       <c r="C128" s="0">
-        <v>1407.2480484952393</v>
+        <v>1541.7523922270486</v>
       </c>
       <c r="D128" s="0" t="s">
         <v>130</v>
@@ -2867,16 +2867,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="0">
-        <v>7910.803200995133</v>
+        <v>7401.0737930699543</v>
       </c>
       <c r="C129" s="0">
-        <v>1977.7008002487833</v>
+        <v>1850.2684482674886</v>
       </c>
       <c r="D129" s="0" t="s">
         <v>131</v>
       </c>
       <c r="E129" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -2884,10 +2884,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="0">
-        <v>5700.5938684744333</v>
+        <v>6224.2405225082839</v>
       </c>
       <c r="C130" s="0">
-        <v>1425.1484671186083</v>
+        <v>1556.060130627071</v>
       </c>
       <c r="D130" s="0" t="s">
         <v>132</v>
@@ -2901,10 +2901,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="0">
-        <v>7924.4341789898626</v>
+        <v>7942.6051287960481</v>
       </c>
       <c r="C131" s="0">
-        <v>1981.1085447474657</v>
+        <v>1985.651282199012</v>
       </c>
       <c r="D131" s="0" t="s">
         <v>133</v>
@@ -2918,10 +2918,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="0">
-        <v>6599.4101442762494</v>
+        <v>7542.6768402176176</v>
       </c>
       <c r="C132" s="0">
-        <v>1649.8525360690624</v>
+        <v>1885.6692100544044</v>
       </c>
       <c r="D132" s="0" t="s">
         <v>134</v>
@@ -2935,10 +2935,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="0">
-        <v>5871.5887039231156</v>
+        <v>7754.0573642000181</v>
       </c>
       <c r="C133" s="0">
-        <v>1467.8971759807789</v>
+        <v>1938.5143410500045</v>
       </c>
       <c r="D133" s="0" t="s">
         <v>135</v>
@@ -2952,16 +2952,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="0">
-        <v>5525.4042762402996</v>
+        <v>6746.3597424036179</v>
       </c>
       <c r="C134" s="0">
-        <v>1381.3510690600749</v>
+        <v>1686.5899356009045</v>
       </c>
       <c r="D134" s="0" t="s">
         <v>136</v>
       </c>
       <c r="E134" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -2969,10 +2969,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="0">
-        <v>6721.8185661886364</v>
+        <v>5684.6694917144687</v>
       </c>
       <c r="C135" s="0">
-        <v>1680.4546415471591</v>
+        <v>1421.1673729286172</v>
       </c>
       <c r="D135" s="0" t="s">
         <v>137</v>
@@ -2986,16 +2986,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="0">
-        <v>6995.3811148426166</v>
+        <v>7251.8009997196623</v>
       </c>
       <c r="C136" s="0">
-        <v>1748.8452787106542</v>
+        <v>1812.9502499299156</v>
       </c>
       <c r="D136" s="0" t="s">
         <v>138</v>
       </c>
       <c r="E136" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3003,16 +3003,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="0">
-        <v>7251.5038255430627</v>
+        <v>5584.0345151887041</v>
       </c>
       <c r="C137" s="0">
-        <v>1812.8759563857657</v>
+        <v>1396.008628797176</v>
       </c>
       <c r="D137" s="0" t="s">
         <v>139</v>
       </c>
       <c r="E137" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3020,16 +3020,16 @@
         <v>137</v>
       </c>
       <c r="B138" s="0">
-        <v>7202.5996932175831</v>
+        <v>6712.3680003507015</v>
       </c>
       <c r="C138" s="0">
-        <v>1800.6499233043958</v>
+        <v>1678.0920000876754</v>
       </c>
       <c r="D138" s="0" t="s">
         <v>140</v>
       </c>
       <c r="E138" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3037,10 +3037,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="0">
-        <v>7765.4678010707466</v>
+        <v>7619.0573403003445</v>
       </c>
       <c r="C139" s="0">
-        <v>1941.3669502676867</v>
+        <v>1904.7643350750861</v>
       </c>
       <c r="D139" s="0" t="s">
         <v>141</v>
@@ -3054,16 +3054,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="0">
-        <v>6471.7446384661998</v>
+        <v>6820.6573711049223</v>
       </c>
       <c r="C140" s="0">
-        <v>1617.93615961655</v>
+        <v>1705.1643427762306</v>
       </c>
       <c r="D140" s="0" t="s">
         <v>142</v>
       </c>
       <c r="E140" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3071,16 +3071,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="0">
-        <v>6099.9237035940414</v>
+        <v>6749.9283896827519</v>
       </c>
       <c r="C141" s="0">
-        <v>1524.9809258985103</v>
+        <v>1687.482097420688</v>
       </c>
       <c r="D141" s="0" t="s">
         <v>143</v>
       </c>
       <c r="E141" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -3088,16 +3088,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="0">
-        <v>5618.0979039253243</v>
+        <v>5614.6065879306543</v>
       </c>
       <c r="C142" s="0">
-        <v>1404.5244759813311</v>
+        <v>1403.6516469826636</v>
       </c>
       <c r="D142" s="0" t="s">
         <v>144</v>
       </c>
       <c r="E142" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3105,10 +3105,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="0">
-        <v>7633.647535346603</v>
+        <v>6636.06962185258</v>
       </c>
       <c r="C143" s="0">
-        <v>1908.4118838366508</v>
+        <v>1659.017405463145</v>
       </c>
       <c r="D143" s="0" t="s">
         <v>145</v>
@@ -3122,16 +3122,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="0">
-        <v>6196.6405439982282</v>
+        <v>6690.390958864723</v>
       </c>
       <c r="C144" s="0">
-        <v>1549.160135999557</v>
+        <v>1672.5977397161807</v>
       </c>
       <c r="D144" s="0" t="s">
         <v>146</v>
       </c>
       <c r="E144" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -3139,16 +3139,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="0">
-        <v>5646.4426290635029</v>
+        <v>7898.0372509988902</v>
       </c>
       <c r="C145" s="0">
-        <v>1411.6106572658757</v>
+        <v>1974.5093127497225</v>
       </c>
       <c r="D145" s="0" t="s">
         <v>147</v>
       </c>
       <c r="E145" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -3156,10 +3156,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="0">
-        <v>6180.7768941236363</v>
+        <v>6066.6836098048079</v>
       </c>
       <c r="C146" s="0">
-        <v>1545.1942235309091</v>
+        <v>1516.670902451202</v>
       </c>
       <c r="D146" s="0" t="s">
         <v>148</v>
@@ -3173,10 +3173,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="0">
-        <v>7456.9446482414724</v>
+        <v>7985.7826534507421</v>
       </c>
       <c r="C147" s="0">
-        <v>1864.2361620603681</v>
+        <v>1996.4456633626855</v>
       </c>
       <c r="D147" s="0" t="s">
         <v>149</v>
@@ -3190,10 +3190,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="0">
-        <v>7827.6498112058816</v>
+        <v>5967.7121711459868</v>
       </c>
       <c r="C148" s="0">
-        <v>1956.9124528014704</v>
+        <v>1491.9280427864967</v>
       </c>
       <c r="D148" s="0" t="s">
         <v>150</v>
@@ -3207,10 +3207,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="0">
-        <v>7746.0155907770659</v>
+        <v>6360.8915110263079</v>
       </c>
       <c r="C149" s="0">
-        <v>1936.5038976942665</v>
+        <v>1590.222877756577</v>
       </c>
       <c r="D149" s="0" t="s">
         <v>151</v>
@@ -3224,16 +3224,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="0">
-        <v>6260.7644055651144</v>
+        <v>6931.9186930862415</v>
       </c>
       <c r="C150" s="0">
-        <v>1565.1911013912786</v>
+        <v>1732.9796732715604</v>
       </c>
       <c r="D150" s="0" t="s">
         <v>152</v>
       </c>
       <c r="E150" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3241,10 +3241,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="0">
-        <v>7247.9691188968573</v>
+        <v>6888.3786769582666</v>
       </c>
       <c r="C151" s="0">
-        <v>1811.9922797242143</v>
+        <v>1722.0946692395667</v>
       </c>
       <c r="D151" s="0" t="s">
         <v>153</v>
@@ -3258,10 +3258,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="0">
-        <v>5721.0175635822588</v>
+        <v>6095.6746794074797</v>
       </c>
       <c r="C152" s="0">
-        <v>1430.2543908955647</v>
+        <v>1523.9186698518699</v>
       </c>
       <c r="D152" s="0" t="s">
         <v>154</v>
@@ -3275,10 +3275,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="0">
-        <v>5974.0853736027675</v>
+        <v>7750.3970460512073</v>
       </c>
       <c r="C153" s="0">
-        <v>1493.5213434006919</v>
+        <v>1937.5992615128018</v>
       </c>
       <c r="D153" s="0" t="s">
         <v>155</v>
@@ -3292,10 +3292,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="0">
-        <v>5798.030847640196</v>
+        <v>7487.0236705997868</v>
       </c>
       <c r="C154" s="0">
-        <v>1449.507711910049</v>
+        <v>1871.7559176499467</v>
       </c>
       <c r="D154" s="0" t="s">
         <v>156</v>
@@ -3309,10 +3309,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="0">
-        <v>7756.7800265514834</v>
+        <v>7165.1710616090713</v>
       </c>
       <c r="C155" s="0">
-        <v>1939.1950066378708</v>
+        <v>1791.2927654022678</v>
       </c>
       <c r="D155" s="0" t="s">
         <v>157</v>
@@ -3326,10 +3326,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="0">
-        <v>5575.4512719174845</v>
+        <v>7052.0998572553781</v>
       </c>
       <c r="C156" s="0">
-        <v>1393.8628179793711</v>
+        <v>1763.0249643138445</v>
       </c>
       <c r="D156" s="0" t="s">
         <v>158</v>
@@ -3343,10 +3343,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="0">
-        <v>6377.6343547204915</v>
+        <v>7165.0891152134191</v>
       </c>
       <c r="C157" s="0">
-        <v>1594.4085886801229</v>
+        <v>1791.2722788033548</v>
       </c>
       <c r="D157" s="0" t="s">
         <v>159</v>
@@ -3360,16 +3360,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="0">
-        <v>7357.3579343284546</v>
+        <v>6288.9894832663649</v>
       </c>
       <c r="C158" s="0">
-        <v>1839.3394835821136</v>
+        <v>1572.2473708165912</v>
       </c>
       <c r="D158" s="0" t="s">
         <v>160</v>
       </c>
       <c r="E158" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -3377,16 +3377,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="0">
-        <v>6946.3588960076195</v>
+        <v>6756.2464685661162</v>
       </c>
       <c r="C159" s="0">
-        <v>1736.5897240019049</v>
+        <v>1689.061617141529</v>
       </c>
       <c r="D159" s="0" t="s">
         <v>161</v>
       </c>
       <c r="E159" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -3394,10 +3394,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="0">
-        <v>6582.4082774735116</v>
+        <v>7928.0492141890782</v>
       </c>
       <c r="C160" s="0">
-        <v>1645.6020693683779</v>
+        <v>1982.0123035472695</v>
       </c>
       <c r="D160" s="0" t="s">
         <v>162</v>
@@ -3411,10 +3411,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="0">
-        <v>7799.4513717380923</v>
+        <v>6047.0552621828501</v>
       </c>
       <c r="C161" s="0">
-        <v>1949.8628429345231</v>
+        <v>1511.7638155457125</v>
       </c>
       <c r="D161" s="0" t="s">
         <v>163</v>
@@ -3428,16 +3428,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="0">
-        <v>7047.1106860288455</v>
+        <v>6071.1243208462693</v>
       </c>
       <c r="C162" s="0">
-        <v>1761.7776715072114</v>
+        <v>1517.7810802115673</v>
       </c>
       <c r="D162" s="0" t="s">
         <v>164</v>
       </c>
       <c r="E162" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3445,16 +3445,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="0">
-        <v>5597.3983530898431</v>
+        <v>6699.3184440063214</v>
       </c>
       <c r="C163" s="0">
-        <v>1399.3495882724608</v>
+        <v>1674.8296110015804</v>
       </c>
       <c r="D163" s="0" t="s">
         <v>165</v>
       </c>
       <c r="E163" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3462,16 +3462,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="0">
-        <v>6776.440050697981</v>
+        <v>7245.6164169740459</v>
       </c>
       <c r="C164" s="0">
-        <v>1694.1100126744952</v>
+        <v>1811.4041042435115</v>
       </c>
       <c r="D164" s="0" t="s">
         <v>166</v>
       </c>
       <c r="E164" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3479,10 +3479,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="0">
-        <v>7847.770803918459</v>
+        <v>7951.0990263390959</v>
       </c>
       <c r="C165" s="0">
-        <v>1961.9427009796148</v>
+        <v>1987.774756584774</v>
       </c>
       <c r="D165" s="0" t="s">
         <v>167</v>
@@ -3496,10 +3496,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="0">
-        <v>7147.609488656607</v>
+        <v>7061.1992635807683</v>
       </c>
       <c r="C166" s="0">
-        <v>1786.9023721641518</v>
+        <v>1765.2998158951921</v>
       </c>
       <c r="D166" s="0" t="s">
         <v>168</v>
@@ -3513,10 +3513,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="0">
-        <v>6486.7307463569286</v>
+        <v>7664.0309299386845</v>
       </c>
       <c r="C167" s="0">
-        <v>1621.6826865892322</v>
+        <v>1916.0077324846711</v>
       </c>
       <c r="D167" s="0" t="s">
         <v>169</v>
@@ -3530,10 +3530,10 @@
         <v>167</v>
       </c>
       <c r="B168" s="0">
-        <v>5712.0499132488621</v>
+        <v>7740.7051583373577</v>
       </c>
       <c r="C168" s="0">
-        <v>1428.0124783122155</v>
+        <v>1935.1762895843394</v>
       </c>
       <c r="D168" s="0" t="s">
         <v>170</v>
@@ -3547,10 +3547,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="0">
-        <v>5566.300847470342</v>
+        <v>7502.6945988307034</v>
       </c>
       <c r="C169" s="0">
-        <v>1391.5752118675855</v>
+        <v>1875.6736497076758</v>
       </c>
       <c r="D169" s="0" t="s">
         <v>171</v>
@@ -3564,16 +3564,16 @@
         <v>169</v>
       </c>
       <c r="B170" s="0">
-        <v>6777.2514536686995</v>
+        <v>7536.113479425333</v>
       </c>
       <c r="C170" s="0">
-        <v>1694.3128634171749</v>
+        <v>1884.0283698563333</v>
       </c>
       <c r="D170" s="0" t="s">
         <v>172</v>
       </c>
       <c r="E170" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3581,10 +3581,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="0">
-        <v>7584.7131509632873</v>
+        <v>7311.2335687289951</v>
       </c>
       <c r="C171" s="0">
-        <v>1896.1782877408218</v>
+        <v>1827.8083921822488</v>
       </c>
       <c r="D171" s="0" t="s">
         <v>173</v>
@@ -3598,16 +3598,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="0">
-        <v>6619.0864730915782</v>
+        <v>7831.3680745728716</v>
       </c>
       <c r="C172" s="0">
-        <v>1654.7716182728946</v>
+        <v>1957.8420186432179</v>
       </c>
       <c r="D172" s="0" t="s">
         <v>174</v>
       </c>
       <c r="E172" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3615,10 +3615,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="0">
-        <v>7939.5742911353373</v>
+        <v>6565.7918095893565</v>
       </c>
       <c r="C173" s="0">
-        <v>1984.8935727838343</v>
+        <v>1641.4479523973391</v>
       </c>
       <c r="D173" s="0" t="s">
         <v>175</v>
@@ -3632,16 +3632,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="0">
-        <v>6640.2427671381965</v>
+        <v>5873.1003976894053</v>
       </c>
       <c r="C174" s="0">
-        <v>1660.0606917845491</v>
+        <v>1468.2750994223513</v>
       </c>
       <c r="D174" s="0" t="s">
         <v>176</v>
       </c>
       <c r="E174" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -3649,16 +3649,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="0">
-        <v>5678.8756230311201</v>
+        <v>7352.061891098916</v>
       </c>
       <c r="C175" s="0">
-        <v>1419.71890575778</v>
+        <v>1838.015472774729</v>
       </c>
       <c r="D175" s="0" t="s">
         <v>177</v>
       </c>
       <c r="E175" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3666,16 +3666,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="0">
-        <v>5988.5977015706112</v>
+        <v>5703.1404084641808</v>
       </c>
       <c r="C176" s="0">
-        <v>1497.1494253926528</v>
+        <v>1425.7851021160452</v>
       </c>
       <c r="D176" s="0" t="s">
         <v>178</v>
       </c>
       <c r="E176" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3683,10 +3683,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="0">
-        <v>6714.380482868366</v>
+        <v>6032.8724212390271</v>
       </c>
       <c r="C177" s="0">
-        <v>1678.5951207170915</v>
+        <v>1508.2181053097568</v>
       </c>
       <c r="D177" s="0" t="s">
         <v>179</v>
@@ -3700,16 +3700,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="0">
-        <v>7312.2537192247773</v>
+        <v>5836.2311682069258</v>
       </c>
       <c r="C178" s="0">
-        <v>1828.0634298061943</v>
+        <v>1459.0577920517314</v>
       </c>
       <c r="D178" s="0" t="s">
         <v>180</v>
       </c>
       <c r="E178" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -3717,16 +3717,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="0">
-        <v>5746.6793731123289</v>
+        <v>7404.3720681617242</v>
       </c>
       <c r="C179" s="0">
-        <v>1436.6698432780822</v>
+        <v>1851.0930170404311</v>
       </c>
       <c r="D179" s="0" t="s">
         <v>181</v>
       </c>
       <c r="E179" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -3734,10 +3734,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="0">
-        <v>7919.1209386806631</v>
+        <v>5776.2728420012172</v>
       </c>
       <c r="C180" s="0">
-        <v>1979.7802346701658</v>
+        <v>1444.0682105003043</v>
       </c>
       <c r="D180" s="0" t="s">
         <v>182</v>
@@ -3751,10 +3751,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="0">
-        <v>6236.5825178617251</v>
+        <v>6340.9459726730147</v>
       </c>
       <c r="C181" s="0">
-        <v>1559.1456294654313</v>
+        <v>1585.2364931682537</v>
       </c>
       <c r="D181" s="0" t="s">
         <v>183</v>
@@ -3768,10 +3768,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="0">
-        <v>7208.1905144445809</v>
+        <v>6049.3308063144859</v>
       </c>
       <c r="C182" s="0">
-        <v>1802.0476286111452</v>
+        <v>1512.3327015786215</v>
       </c>
       <c r="D182" s="0" t="s">
         <v>184</v>
@@ -3785,10 +3785,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="0">
-        <v>5827.60324104968</v>
+        <v>5895.6794218039395</v>
       </c>
       <c r="C183" s="0">
-        <v>1456.90081026242</v>
+        <v>1473.9198554509849</v>
       </c>
       <c r="D183" s="0" t="s">
         <v>185</v>
@@ -3802,10 +3802,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="0">
-        <v>7142.8229463129492</v>
+        <v>6544.7799230560777</v>
       </c>
       <c r="C184" s="0">
-        <v>1785.7057365782373</v>
+        <v>1636.1949807640194</v>
       </c>
       <c r="D184" s="0" t="s">
         <v>186</v>
@@ -3819,10 +3819,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="0">
-        <v>7812.4573611247624</v>
+        <v>5603.2083357304919</v>
       </c>
       <c r="C185" s="0">
-        <v>1953.1143402811906</v>
+        <v>1400.802083932623</v>
       </c>
       <c r="D185" s="0" t="s">
         <v>187</v>
@@ -3836,10 +3836,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="0">
-        <v>7582.4330928277195</v>
+        <v>6954.9622879543431</v>
       </c>
       <c r="C186" s="0">
-        <v>1895.6082732069299</v>
+        <v>1738.7405719885858</v>
       </c>
       <c r="D186" s="0" t="s">
         <v>188</v>
@@ -3853,10 +3853,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="0">
-        <v>6204.4484384564757</v>
+        <v>6588.4101407469625</v>
       </c>
       <c r="C187" s="0">
-        <v>1551.1121096141189</v>
+        <v>1647.1025351867406</v>
       </c>
       <c r="D187" s="0" t="s">
         <v>189</v>
@@ -3870,16 +3870,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="0">
-        <v>6191.9966734743484</v>
+        <v>6747.1331609772933</v>
       </c>
       <c r="C188" s="0">
-        <v>1547.9991683685871</v>
+        <v>1686.7832902443233</v>
       </c>
       <c r="D188" s="0" t="s">
         <v>190</v>
       </c>
       <c r="E188" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -3887,10 +3887,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="0">
-        <v>7747.9580449021432</v>
+        <v>6379.7616574681479</v>
       </c>
       <c r="C189" s="0">
-        <v>1936.9895112255358</v>
+        <v>1594.940414367037</v>
       </c>
       <c r="D189" s="0" t="s">
         <v>191</v>
@@ -3904,16 +3904,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="0">
-        <v>6714.8476759571695</v>
+        <v>7238.0634766167732</v>
       </c>
       <c r="C190" s="0">
-        <v>1678.7119189892924</v>
+        <v>1809.5158691541933</v>
       </c>
       <c r="D190" s="0" t="s">
         <v>192</v>
       </c>
       <c r="E190" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -3921,10 +3921,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="0">
-        <v>7163.9826581755606</v>
+        <v>7664.1417183235808</v>
       </c>
       <c r="C191" s="0">
-        <v>1790.9956645438901</v>
+        <v>1916.0354295808952</v>
       </c>
       <c r="D191" s="0" t="s">
         <v>193</v>
@@ -3938,16 +3938,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="0">
-        <v>7945.2344416360684</v>
+        <v>6364.6657832130168</v>
       </c>
       <c r="C192" s="0">
-        <v>1986.3086104090171</v>
+        <v>1591.1664458032542</v>
       </c>
       <c r="D192" s="0" t="s">
         <v>194</v>
       </c>
       <c r="E192" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -3955,10 +3955,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="0">
-        <v>7700.0042190637305</v>
+        <v>6041.6210565267056</v>
       </c>
       <c r="C193" s="0">
-        <v>1925.0010547659326</v>
+        <v>1510.4052641316764</v>
       </c>
       <c r="D193" s="0" t="s">
         <v>195</v>
@@ -3972,16 +3972,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="0">
-        <v>6923.5128187365663</v>
+        <v>6766.9199464788935</v>
       </c>
       <c r="C194" s="0">
-        <v>1730.8782046841416</v>
+        <v>1691.7299866197234</v>
       </c>
       <c r="D194" s="0" t="s">
         <v>196</v>
       </c>
       <c r="E194" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -3989,16 +3989,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="0">
-        <v>7651.5453105616034</v>
+        <v>6454.6822631494188</v>
       </c>
       <c r="C195" s="0">
-        <v>1912.8863276404009</v>
+        <v>1613.6705657873547</v>
       </c>
       <c r="D195" s="0" t="s">
         <v>197</v>
       </c>
       <c r="E195" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4006,16 +4006,16 @@
         <v>195</v>
       </c>
       <c r="B196" s="0">
-        <v>6796.1614745472807</v>
+        <v>5649.7447165953199</v>
       </c>
       <c r="C196" s="0">
-        <v>1699.0403686368202</v>
+        <v>1412.43617914883</v>
       </c>
       <c r="D196" s="0" t="s">
         <v>198</v>
       </c>
       <c r="E196" s="0" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -4023,10 +4023,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="0">
-        <v>6615.2291066167427</v>
+        <v>6103.6665798036893</v>
       </c>
       <c r="C197" s="0">
-        <v>1653.8072766541857</v>
+        <v>1525.9166449509223</v>
       </c>
       <c r="D197" s="0" t="s">
         <v>199</v>
@@ -4040,10 +4040,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="0">
-        <v>5672.0702408066709</v>
+        <v>5574.3167663754075</v>
       </c>
       <c r="C198" s="0">
-        <v>1418.0175602016677</v>
+        <v>1393.5791915938519</v>
       </c>
       <c r="D198" s="0" t="s">
         <v>200</v>
@@ -4057,10 +4057,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="0">
-        <v>6865.4950912842269</v>
+        <v>7305.5591197074937</v>
       </c>
       <c r="C199" s="0">
-        <v>1716.3737728210567</v>
+        <v>1826.3897799268734</v>
       </c>
       <c r="D199" s="0" t="s">
         <v>201</v>
@@ -4074,10 +4074,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="0">
-        <v>7677.03192265502</v>
+        <v>7662.4328095705696</v>
       </c>
       <c r="C200" s="0">
-        <v>1919.257980663755</v>
+        <v>1915.6082023926424</v>
       </c>
       <c r="D200" s="0" t="s">
         <v>202</v>
@@ -4091,16 +4091,16 @@
         <v>200</v>
       </c>
       <c r="B201" s="0">
-        <v>7583.265399798338</v>
+        <v>7860.9482816702566</v>
       </c>
       <c r="C201" s="0">
-        <v>1895.8163499495845</v>
+        <v>1965.2370704175642</v>
       </c>
       <c r="D201" s="0" t="s">
         <v>203</v>
       </c>
       <c r="E201" s="0" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
